--- a/data/pitcher_data/2021/adam_jason.xlsx
+++ b/data/pitcher_data/2021/adam_jason.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T302"/>
+  <dimension ref="A1:U302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,20 +511,25 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>inning_topbot</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>at_bat_number</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>pitch_number</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>home_score</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>away_score</t>
         </is>
@@ -585,16 +590,21 @@
       <c r="P2" t="n">
         <v>8</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
         <v>70</v>
       </c>
-      <c r="R2" t="n">
-        <v>2</v>
-      </c>
       <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="n">
         <v>5</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -643,16 +653,21 @@
       <c r="P3" t="n">
         <v>8</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
         <v>70</v>
       </c>
-      <c r="R3" t="n">
-        <v>1</v>
-      </c>
       <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
         <v>5</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -707,16 +722,21 @@
       <c r="P4" t="n">
         <v>8</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
         <v>69</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>3</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>5</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -765,16 +785,21 @@
       <c r="P5" t="n">
         <v>8</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
         <v>69</v>
       </c>
-      <c r="R5" t="n">
-        <v>2</v>
-      </c>
       <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="n">
         <v>5</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -823,16 +848,21 @@
       <c r="P6" t="n">
         <v>8</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
         <v>69</v>
       </c>
-      <c r="R6" t="n">
-        <v>1</v>
-      </c>
       <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
         <v>5</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -887,16 +917,21 @@
       <c r="P7" t="n">
         <v>8</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
         <v>68</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>4</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>5</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -951,16 +986,21 @@
       <c r="P8" t="n">
         <v>8</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
         <v>68</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>4</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>5</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1009,16 +1049,21 @@
       <c r="P9" t="n">
         <v>8</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
         <v>68</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>3</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>5</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1067,16 +1112,21 @@
       <c r="P10" t="n">
         <v>8</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
         <v>68</v>
       </c>
-      <c r="R10" t="n">
-        <v>2</v>
-      </c>
       <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="n">
         <v>5</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1125,16 +1175,21 @@
       <c r="P11" t="n">
         <v>8</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
         <v>68</v>
       </c>
-      <c r="R11" t="n">
-        <v>1</v>
-      </c>
       <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
         <v>5</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1195,16 +1250,21 @@
       <c r="P12" t="n">
         <v>9</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
         <v>74</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>5</v>
       </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
       <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1255,16 +1315,21 @@
       <c r="P13" t="n">
         <v>9</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
         <v>74</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>4</v>
       </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
       <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1315,16 +1380,21 @@
       <c r="P14" t="n">
         <v>9</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
         <v>74</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>3</v>
       </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
       <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1375,16 +1445,21 @@
       <c r="P15" t="n">
         <v>9</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
         <v>74</v>
       </c>
-      <c r="R15" t="n">
-        <v>2</v>
-      </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1435,16 +1510,21 @@
       <c r="P16" t="n">
         <v>9</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
         <v>74</v>
       </c>
-      <c r="R16" t="n">
-        <v>1</v>
-      </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1503,16 +1583,21 @@
       <c r="P17" t="n">
         <v>9</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
         <v>73</v>
       </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1571,16 +1656,21 @@
       <c r="P18" t="n">
         <v>9</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
         <v>72</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>8</v>
       </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
       <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1629,16 +1719,21 @@
       <c r="P19" t="n">
         <v>9</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
         <v>72</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>7</v>
       </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1687,16 +1782,21 @@
       <c r="P20" t="n">
         <v>9</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
         <v>72</v>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>6</v>
       </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
       <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1745,16 +1845,21 @@
       <c r="P21" t="n">
         <v>9</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
         <v>72</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>5</v>
       </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
       <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1803,16 +1908,21 @@
       <c r="P22" t="n">
         <v>9</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
         <v>72</v>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>4</v>
       </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1861,16 +1971,21 @@
       <c r="P23" t="n">
         <v>9</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
         <v>72</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>3</v>
       </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
       <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1919,16 +2034,21 @@
       <c r="P24" t="n">
         <v>9</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
         <v>72</v>
       </c>
-      <c r="R24" t="n">
-        <v>2</v>
-      </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1977,16 +2097,21 @@
       <c r="P25" t="n">
         <v>9</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
         <v>72</v>
       </c>
-      <c r="R25" t="n">
-        <v>1</v>
-      </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2041,16 +2166,21 @@
       <c r="P26" t="n">
         <v>9</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
         <v>71</v>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>6</v>
       </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
       <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2099,16 +2229,21 @@
       <c r="P27" t="n">
         <v>9</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
         <v>71</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>5</v>
       </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2157,16 +2292,21 @@
       <c r="P28" t="n">
         <v>9</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
         <v>71</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>4</v>
       </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2215,16 +2355,21 @@
       <c r="P29" t="n">
         <v>9</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
         <v>71</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>3</v>
       </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
       <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2273,16 +2418,21 @@
       <c r="P30" t="n">
         <v>9</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
         <v>71</v>
       </c>
-      <c r="R30" t="n">
-        <v>2</v>
-      </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2331,16 +2481,21 @@
       <c r="P31" t="n">
         <v>9</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
         <v>71</v>
       </c>
-      <c r="R31" t="n">
-        <v>1</v>
-      </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2395,16 +2550,21 @@
       <c r="P32" t="n">
         <v>7</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
         <v>62</v>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>4</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>5</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2453,16 +2613,21 @@
       <c r="P33" t="n">
         <v>7</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
         <v>62</v>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>3</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>5</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2511,16 +2676,21 @@
       <c r="P34" t="n">
         <v>7</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
         <v>62</v>
       </c>
-      <c r="R34" t="n">
-        <v>2</v>
-      </c>
       <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="n">
         <v>5</v>
       </c>
-      <c r="T34" t="n">
+      <c r="U34" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2569,16 +2739,21 @@
       <c r="P35" t="n">
         <v>7</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
         <v>62</v>
       </c>
-      <c r="R35" t="n">
-        <v>1</v>
-      </c>
       <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="n">
         <v>5</v>
       </c>
-      <c r="T35" t="n">
+      <c r="U35" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2633,16 +2808,21 @@
       <c r="P36" t="n">
         <v>7</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
         <v>61</v>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>7</v>
       </c>
-      <c r="S36" t="n">
+      <c r="T36" t="n">
         <v>5</v>
       </c>
-      <c r="T36" t="n">
+      <c r="U36" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2691,16 +2871,21 @@
       <c r="P37" t="n">
         <v>7</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
         <v>61</v>
       </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
         <v>6</v>
       </c>
-      <c r="S37" t="n">
+      <c r="T37" t="n">
         <v>5</v>
       </c>
-      <c r="T37" t="n">
+      <c r="U37" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2749,16 +2934,21 @@
       <c r="P38" t="n">
         <v>7</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
         <v>61</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
       </c>
       <c r="T38" t="n">
+        <v>5</v>
+      </c>
+      <c r="U38" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2807,16 +2997,21 @@
       <c r="P39" t="n">
         <v>7</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
         <v>61</v>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>4</v>
       </c>
-      <c r="S39" t="n">
+      <c r="T39" t="n">
         <v>5</v>
       </c>
-      <c r="T39" t="n">
+      <c r="U39" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2865,16 +3060,21 @@
       <c r="P40" t="n">
         <v>7</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
         <v>61</v>
       </c>
-      <c r="R40" t="n">
+      <c r="S40" t="n">
         <v>3</v>
       </c>
-      <c r="S40" t="n">
+      <c r="T40" t="n">
         <v>5</v>
       </c>
-      <c r="T40" t="n">
+      <c r="U40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2923,16 +3123,21 @@
       <c r="P41" t="n">
         <v>7</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
         <v>61</v>
       </c>
-      <c r="R41" t="n">
-        <v>2</v>
-      </c>
       <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="n">
         <v>5</v>
       </c>
-      <c r="T41" t="n">
+      <c r="U41" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2981,16 +3186,21 @@
       <c r="P42" t="n">
         <v>7</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
         <v>61</v>
       </c>
-      <c r="R42" t="n">
-        <v>1</v>
-      </c>
       <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="n">
         <v>5</v>
       </c>
-      <c r="T42" t="n">
+      <c r="U42" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3045,16 +3255,21 @@
       <c r="P43" t="n">
         <v>7</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
         <v>60</v>
       </c>
-      <c r="R43" t="n">
+      <c r="S43" t="n">
         <v>4</v>
       </c>
-      <c r="S43" t="n">
+      <c r="T43" t="n">
         <v>5</v>
       </c>
-      <c r="T43" t="n">
+      <c r="U43" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3103,16 +3318,21 @@
       <c r="P44" t="n">
         <v>7</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
         <v>60</v>
       </c>
-      <c r="R44" t="n">
+      <c r="S44" t="n">
         <v>3</v>
       </c>
-      <c r="S44" t="n">
+      <c r="T44" t="n">
         <v>5</v>
       </c>
-      <c r="T44" t="n">
+      <c r="U44" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3161,16 +3381,21 @@
       <c r="P45" t="n">
         <v>7</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
         <v>60</v>
       </c>
-      <c r="R45" t="n">
-        <v>2</v>
-      </c>
       <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="n">
         <v>5</v>
       </c>
-      <c r="T45" t="n">
+      <c r="U45" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3219,16 +3444,21 @@
       <c r="P46" t="n">
         <v>7</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
         <v>60</v>
       </c>
-      <c r="R46" t="n">
-        <v>1</v>
-      </c>
       <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="n">
         <v>5</v>
       </c>
-      <c r="T46" t="n">
+      <c r="U46" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3287,16 +3517,21 @@
       <c r="P47" t="n">
         <v>9</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
         <v>71</v>
       </c>
-      <c r="R47" t="n">
+      <c r="S47" t="n">
         <v>5</v>
       </c>
-      <c r="S47" t="n">
-        <v>2</v>
-      </c>
       <c r="T47" t="n">
+        <v>2</v>
+      </c>
+      <c r="U47" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3349,16 +3584,21 @@
       <c r="P48" t="n">
         <v>9</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
         <v>71</v>
       </c>
-      <c r="R48" t="n">
+      <c r="S48" t="n">
         <v>4</v>
       </c>
-      <c r="S48" t="n">
-        <v>2</v>
-      </c>
       <c r="T48" t="n">
+        <v>2</v>
+      </c>
+      <c r="U48" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3411,16 +3651,21 @@
       <c r="P49" t="n">
         <v>9</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
         <v>71</v>
       </c>
-      <c r="R49" t="n">
+      <c r="S49" t="n">
         <v>3</v>
       </c>
-      <c r="S49" t="n">
-        <v>2</v>
-      </c>
       <c r="T49" t="n">
+        <v>2</v>
+      </c>
+      <c r="U49" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3473,16 +3718,21 @@
       <c r="P50" t="n">
         <v>9</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
         <v>71</v>
       </c>
-      <c r="R50" t="n">
-        <v>2</v>
-      </c>
       <c r="S50" t="n">
         <v>2</v>
       </c>
       <c r="T50" t="n">
+        <v>2</v>
+      </c>
+      <c r="U50" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3535,16 +3785,21 @@
       <c r="P51" t="n">
         <v>9</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
         <v>71</v>
       </c>
-      <c r="R51" t="n">
-        <v>1</v>
-      </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T51" t="n">
+        <v>2</v>
+      </c>
+      <c r="U51" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3603,16 +3858,21 @@
       <c r="P52" t="n">
         <v>9</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
         <v>70</v>
       </c>
-      <c r="R52" t="n">
+      <c r="S52" t="n">
         <v>4</v>
       </c>
-      <c r="S52" t="n">
-        <v>2</v>
-      </c>
       <c r="T52" t="n">
+        <v>2</v>
+      </c>
+      <c r="U52" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3665,16 +3925,21 @@
       <c r="P53" t="n">
         <v>9</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
         <v>70</v>
       </c>
-      <c r="R53" t="n">
+      <c r="S53" t="n">
         <v>3</v>
       </c>
-      <c r="S53" t="n">
-        <v>2</v>
-      </c>
       <c r="T53" t="n">
+        <v>2</v>
+      </c>
+      <c r="U53" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3727,16 +3992,21 @@
       <c r="P54" t="n">
         <v>9</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
         <v>70</v>
       </c>
-      <c r="R54" t="n">
-        <v>2</v>
-      </c>
       <c r="S54" t="n">
         <v>2</v>
       </c>
       <c r="T54" t="n">
+        <v>2</v>
+      </c>
+      <c r="U54" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3789,16 +4059,21 @@
       <c r="P55" t="n">
         <v>9</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
         <v>70</v>
       </c>
-      <c r="R55" t="n">
-        <v>1</v>
-      </c>
       <c r="S55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T55" t="n">
+        <v>2</v>
+      </c>
+      <c r="U55" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3859,16 +4134,21 @@
       <c r="P56" t="n">
         <v>9</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
         <v>69</v>
       </c>
-      <c r="R56" t="n">
-        <v>1</v>
-      </c>
       <c r="S56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T56" t="n">
+        <v>2</v>
+      </c>
+      <c r="U56" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3925,16 +4205,21 @@
       <c r="P57" t="n">
         <v>9</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
         <v>68</v>
       </c>
-      <c r="R57" t="n">
+      <c r="S57" t="n">
         <v>5</v>
       </c>
-      <c r="S57" t="n">
-        <v>2</v>
-      </c>
       <c r="T57" t="n">
+        <v>2</v>
+      </c>
+      <c r="U57" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3985,16 +4270,21 @@
       <c r="P58" t="n">
         <v>9</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
         <v>68</v>
       </c>
-      <c r="R58" t="n">
+      <c r="S58" t="n">
         <v>4</v>
       </c>
-      <c r="S58" t="n">
-        <v>2</v>
-      </c>
       <c r="T58" t="n">
+        <v>2</v>
+      </c>
+      <c r="U58" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4045,16 +4335,21 @@
       <c r="P59" t="n">
         <v>9</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
         <v>68</v>
       </c>
-      <c r="R59" t="n">
+      <c r="S59" t="n">
         <v>3</v>
       </c>
-      <c r="S59" t="n">
-        <v>2</v>
-      </c>
       <c r="T59" t="n">
+        <v>2</v>
+      </c>
+      <c r="U59" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4105,16 +4400,21 @@
       <c r="P60" t="n">
         <v>9</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
         <v>68</v>
       </c>
-      <c r="R60" t="n">
-        <v>2</v>
-      </c>
       <c r="S60" t="n">
         <v>2</v>
       </c>
       <c r="T60" t="n">
+        <v>2</v>
+      </c>
+      <c r="U60" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4165,16 +4465,21 @@
       <c r="P61" t="n">
         <v>9</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
         <v>68</v>
       </c>
-      <c r="R61" t="n">
-        <v>1</v>
-      </c>
       <c r="S61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T61" t="n">
+        <v>2</v>
+      </c>
+      <c r="U61" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4233,16 +4538,21 @@
       <c r="P62" t="n">
         <v>9</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
         <v>67</v>
       </c>
-      <c r="R62" t="n">
-        <v>2</v>
-      </c>
       <c r="S62" t="n">
         <v>2</v>
       </c>
       <c r="T62" t="n">
+        <v>2</v>
+      </c>
+      <c r="U62" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4291,16 +4601,21 @@
       <c r="P63" t="n">
         <v>9</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
         <v>67</v>
       </c>
-      <c r="R63" t="n">
-        <v>1</v>
-      </c>
       <c r="S63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T63" t="n">
+        <v>2</v>
+      </c>
+      <c r="U63" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4357,16 +4672,21 @@
       <c r="P64" t="n">
         <v>9</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
         <v>66</v>
       </c>
-      <c r="R64" t="n">
+      <c r="S64" t="n">
         <v>8</v>
       </c>
-      <c r="S64" t="n">
-        <v>0</v>
-      </c>
       <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4423,16 +4743,21 @@
       <c r="P65" t="n">
         <v>9</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
         <v>66</v>
       </c>
-      <c r="R65" t="n">
+      <c r="S65" t="n">
         <v>8</v>
       </c>
-      <c r="S65" t="n">
-        <v>0</v>
-      </c>
       <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4485,16 +4810,21 @@
       <c r="P66" t="n">
         <v>9</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
         <v>66</v>
       </c>
-      <c r="R66" t="n">
+      <c r="S66" t="n">
         <v>7</v>
       </c>
-      <c r="S66" t="n">
-        <v>0</v>
-      </c>
       <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4547,16 +4877,21 @@
       <c r="P67" t="n">
         <v>9</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
         <v>66</v>
       </c>
-      <c r="R67" t="n">
+      <c r="S67" t="n">
         <v>6</v>
       </c>
-      <c r="S67" t="n">
-        <v>0</v>
-      </c>
       <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4609,16 +4944,21 @@
       <c r="P68" t="n">
         <v>9</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
         <v>66</v>
       </c>
-      <c r="R68" t="n">
+      <c r="S68" t="n">
         <v>5</v>
       </c>
-      <c r="S68" t="n">
-        <v>0</v>
-      </c>
       <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4671,16 +5011,21 @@
       <c r="P69" t="n">
         <v>9</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
         <v>66</v>
       </c>
-      <c r="R69" t="n">
+      <c r="S69" t="n">
         <v>4</v>
       </c>
-      <c r="S69" t="n">
-        <v>0</v>
-      </c>
       <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4733,16 +5078,21 @@
       <c r="P70" t="n">
         <v>9</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
         <v>66</v>
       </c>
-      <c r="R70" t="n">
+      <c r="S70" t="n">
         <v>3</v>
       </c>
-      <c r="S70" t="n">
-        <v>0</v>
-      </c>
       <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4795,16 +5145,21 @@
       <c r="P71" t="n">
         <v>9</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
         <v>66</v>
       </c>
-      <c r="R71" t="n">
-        <v>2</v>
-      </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4857,16 +5212,21 @@
       <c r="P72" t="n">
         <v>9</v>
       </c>
-      <c r="Q72" t="n">
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
         <v>66</v>
       </c>
-      <c r="R72" t="n">
-        <v>1</v>
-      </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4929,16 +5289,21 @@
       <c r="P73" t="n">
         <v>9</v>
       </c>
-      <c r="Q73" t="n">
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
         <v>65</v>
       </c>
-      <c r="R73" t="n">
+      <c r="S73" t="n">
         <v>5</v>
       </c>
-      <c r="S73" t="n">
-        <v>0</v>
-      </c>
       <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4991,16 +5356,21 @@
       <c r="P74" t="n">
         <v>9</v>
       </c>
-      <c r="Q74" t="n">
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
         <v>65</v>
       </c>
-      <c r="R74" t="n">
+      <c r="S74" t="n">
         <v>4</v>
       </c>
-      <c r="S74" t="n">
-        <v>0</v>
-      </c>
       <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5053,16 +5423,21 @@
       <c r="P75" t="n">
         <v>9</v>
       </c>
-      <c r="Q75" t="n">
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
         <v>65</v>
       </c>
-      <c r="R75" t="n">
+      <c r="S75" t="n">
         <v>3</v>
       </c>
-      <c r="S75" t="n">
-        <v>0</v>
-      </c>
       <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5115,16 +5490,21 @@
       <c r="P76" t="n">
         <v>9</v>
       </c>
-      <c r="Q76" t="n">
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
         <v>65</v>
       </c>
-      <c r="R76" t="n">
-        <v>2</v>
-      </c>
       <c r="S76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T76" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5177,16 +5557,21 @@
       <c r="P77" t="n">
         <v>9</v>
       </c>
-      <c r="Q77" t="n">
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
         <v>65</v>
       </c>
-      <c r="R77" t="n">
-        <v>1</v>
-      </c>
       <c r="S77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5251,16 +5636,21 @@
       <c r="P78" t="n">
         <v>9</v>
       </c>
-      <c r="Q78" t="n">
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
         <v>64</v>
       </c>
-      <c r="R78" t="n">
-        <v>2</v>
-      </c>
       <c r="S78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5315,16 +5705,21 @@
       <c r="P79" t="n">
         <v>9</v>
       </c>
-      <c r="Q79" t="n">
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
         <v>64</v>
       </c>
-      <c r="R79" t="n">
-        <v>1</v>
-      </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5381,16 +5776,21 @@
       <c r="P80" t="n">
         <v>9</v>
       </c>
-      <c r="Q80" t="n">
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
         <v>63</v>
       </c>
-      <c r="R80" t="n">
-        <v>1</v>
-      </c>
       <c r="S80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T80" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5445,16 +5845,21 @@
       <c r="P81" t="n">
         <v>9</v>
       </c>
-      <c r="Q81" t="n">
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
         <v>62</v>
       </c>
-      <c r="R81" t="n">
+      <c r="S81" t="n">
         <v>5</v>
       </c>
-      <c r="S81" t="n">
-        <v>0</v>
-      </c>
       <c r="T81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5509,16 +5914,21 @@
       <c r="P82" t="n">
         <v>9</v>
       </c>
-      <c r="Q82" t="n">
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
         <v>62</v>
       </c>
-      <c r="R82" t="n">
+      <c r="S82" t="n">
         <v>5</v>
       </c>
-      <c r="S82" t="n">
-        <v>0</v>
-      </c>
       <c r="T82" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5569,16 +5979,21 @@
       <c r="P83" t="n">
         <v>9</v>
       </c>
-      <c r="Q83" t="n">
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
         <v>62</v>
       </c>
-      <c r="R83" t="n">
+      <c r="S83" t="n">
         <v>4</v>
       </c>
-      <c r="S83" t="n">
-        <v>0</v>
-      </c>
       <c r="T83" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5629,16 +6044,21 @@
       <c r="P84" t="n">
         <v>9</v>
       </c>
-      <c r="Q84" t="n">
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
         <v>62</v>
       </c>
-      <c r="R84" t="n">
+      <c r="S84" t="n">
         <v>3</v>
       </c>
-      <c r="S84" t="n">
-        <v>0</v>
-      </c>
       <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5689,16 +6109,21 @@
       <c r="P85" t="n">
         <v>9</v>
       </c>
-      <c r="Q85" t="n">
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
         <v>62</v>
       </c>
-      <c r="R85" t="n">
-        <v>2</v>
-      </c>
       <c r="S85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T85" t="n">
+        <v>0</v>
+      </c>
+      <c r="U85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5749,16 +6174,21 @@
       <c r="P86" t="n">
         <v>9</v>
       </c>
-      <c r="Q86" t="n">
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
         <v>62</v>
       </c>
-      <c r="R86" t="n">
-        <v>1</v>
-      </c>
       <c r="S86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T86" t="n">
+        <v>0</v>
+      </c>
+      <c r="U86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5817,16 +6247,21 @@
       <c r="P87" t="n">
         <v>9</v>
       </c>
-      <c r="Q87" t="n">
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
         <v>61</v>
       </c>
-      <c r="R87" t="n">
+      <c r="S87" t="n">
         <v>6</v>
       </c>
-      <c r="S87" t="n">
-        <v>0</v>
-      </c>
       <c r="T87" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5875,16 +6310,21 @@
       <c r="P88" t="n">
         <v>9</v>
       </c>
-      <c r="Q88" t="n">
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
         <v>61</v>
       </c>
-      <c r="R88" t="n">
+      <c r="S88" t="n">
         <v>5</v>
       </c>
-      <c r="S88" t="n">
-        <v>0</v>
-      </c>
       <c r="T88" t="n">
+        <v>0</v>
+      </c>
+      <c r="U88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5933,16 +6373,21 @@
       <c r="P89" t="n">
         <v>9</v>
       </c>
-      <c r="Q89" t="n">
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
         <v>61</v>
       </c>
-      <c r="R89" t="n">
+      <c r="S89" t="n">
         <v>4</v>
       </c>
-      <c r="S89" t="n">
-        <v>0</v>
-      </c>
       <c r="T89" t="n">
+        <v>0</v>
+      </c>
+      <c r="U89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5991,16 +6436,21 @@
       <c r="P90" t="n">
         <v>9</v>
       </c>
-      <c r="Q90" t="n">
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
         <v>61</v>
       </c>
-      <c r="R90" t="n">
+      <c r="S90" t="n">
         <v>3</v>
       </c>
-      <c r="S90" t="n">
-        <v>0</v>
-      </c>
       <c r="T90" t="n">
+        <v>0</v>
+      </c>
+      <c r="U90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6049,16 +6499,21 @@
       <c r="P91" t="n">
         <v>9</v>
       </c>
-      <c r="Q91" t="n">
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
         <v>61</v>
       </c>
-      <c r="R91" t="n">
-        <v>2</v>
-      </c>
       <c r="S91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T91" t="n">
+        <v>0</v>
+      </c>
+      <c r="U91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6107,16 +6562,21 @@
       <c r="P92" t="n">
         <v>9</v>
       </c>
-      <c r="Q92" t="n">
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
         <v>61</v>
       </c>
-      <c r="R92" t="n">
-        <v>1</v>
-      </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T92" t="n">
+        <v>0</v>
+      </c>
+      <c r="U92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6169,16 +6629,21 @@
       <c r="P93" t="n">
         <v>7</v>
       </c>
-      <c r="Q93" t="n">
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
         <v>47</v>
       </c>
-      <c r="R93" t="n">
-        <v>1</v>
-      </c>
       <c r="S93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T93" t="n">
         <v>3</v>
       </c>
-      <c r="T93" t="n">
+      <c r="U93" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6233,16 +6698,21 @@
       <c r="P94" t="n">
         <v>6</v>
       </c>
-      <c r="Q94" t="n">
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
         <v>43</v>
       </c>
-      <c r="R94" t="n">
+      <c r="S94" t="n">
         <v>4</v>
       </c>
-      <c r="S94" t="n">
+      <c r="T94" t="n">
         <v>3</v>
       </c>
-      <c r="T94" t="n">
+      <c r="U94" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6291,16 +6761,21 @@
       <c r="P95" t="n">
         <v>6</v>
       </c>
-      <c r="Q95" t="n">
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
         <v>43</v>
-      </c>
-      <c r="R95" t="n">
-        <v>3</v>
       </c>
       <c r="S95" t="n">
         <v>3</v>
       </c>
       <c r="T95" t="n">
+        <v>3</v>
+      </c>
+      <c r="U95" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6349,16 +6824,21 @@
       <c r="P96" t="n">
         <v>6</v>
       </c>
-      <c r="Q96" t="n">
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
         <v>43</v>
       </c>
-      <c r="R96" t="n">
-        <v>2</v>
-      </c>
       <c r="S96" t="n">
+        <v>2</v>
+      </c>
+      <c r="T96" t="n">
         <v>3</v>
       </c>
-      <c r="T96" t="n">
+      <c r="U96" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6407,16 +6887,21 @@
       <c r="P97" t="n">
         <v>6</v>
       </c>
-      <c r="Q97" t="n">
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
         <v>43</v>
       </c>
-      <c r="R97" t="n">
-        <v>1</v>
-      </c>
       <c r="S97" t="n">
+        <v>1</v>
+      </c>
+      <c r="T97" t="n">
         <v>3</v>
       </c>
-      <c r="T97" t="n">
+      <c r="U97" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6475,16 +6960,21 @@
       <c r="P98" t="n">
         <v>6</v>
       </c>
-      <c r="Q98" t="n">
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
         <v>42</v>
       </c>
-      <c r="R98" t="n">
+      <c r="S98" t="n">
         <v>4</v>
       </c>
-      <c r="S98" t="n">
+      <c r="T98" t="n">
         <v>3</v>
       </c>
-      <c r="T98" t="n">
+      <c r="U98" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6533,16 +7023,21 @@
       <c r="P99" t="n">
         <v>6</v>
       </c>
-      <c r="Q99" t="n">
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
         <v>42</v>
-      </c>
-      <c r="R99" t="n">
-        <v>3</v>
       </c>
       <c r="S99" t="n">
         <v>3</v>
       </c>
       <c r="T99" t="n">
+        <v>3</v>
+      </c>
+      <c r="U99" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6591,16 +7086,21 @@
       <c r="P100" t="n">
         <v>6</v>
       </c>
-      <c r="Q100" t="n">
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
         <v>42</v>
       </c>
-      <c r="R100" t="n">
-        <v>2</v>
-      </c>
       <c r="S100" t="n">
+        <v>2</v>
+      </c>
+      <c r="T100" t="n">
         <v>3</v>
       </c>
-      <c r="T100" t="n">
+      <c r="U100" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6649,16 +7149,21 @@
       <c r="P101" t="n">
         <v>6</v>
       </c>
-      <c r="Q101" t="n">
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
         <v>42</v>
       </c>
-      <c r="R101" t="n">
-        <v>1</v>
-      </c>
       <c r="S101" t="n">
+        <v>1</v>
+      </c>
+      <c r="T101" t="n">
         <v>3</v>
       </c>
-      <c r="T101" t="n">
+      <c r="U101" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6717,16 +7222,21 @@
       <c r="P102" t="n">
         <v>6</v>
       </c>
-      <c r="Q102" t="n">
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
         <v>41</v>
-      </c>
-      <c r="R102" t="n">
-        <v>3</v>
       </c>
       <c r="S102" t="n">
         <v>3</v>
       </c>
       <c r="T102" t="n">
+        <v>3</v>
+      </c>
+      <c r="U102" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6775,16 +7285,21 @@
       <c r="P103" t="n">
         <v>6</v>
       </c>
-      <c r="Q103" t="n">
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
         <v>41</v>
       </c>
-      <c r="R103" t="n">
-        <v>2</v>
-      </c>
       <c r="S103" t="n">
+        <v>2</v>
+      </c>
+      <c r="T103" t="n">
         <v>3</v>
       </c>
-      <c r="T103" t="n">
+      <c r="U103" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6833,16 +7348,21 @@
       <c r="P104" t="n">
         <v>6</v>
       </c>
-      <c r="Q104" t="n">
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
         <v>41</v>
       </c>
-      <c r="R104" t="n">
-        <v>1</v>
-      </c>
       <c r="S104" t="n">
+        <v>1</v>
+      </c>
+      <c r="T104" t="n">
         <v>3</v>
       </c>
-      <c r="T104" t="n">
+      <c r="U104" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6901,16 +7421,21 @@
       <c r="P105" t="n">
         <v>9</v>
       </c>
-      <c r="Q105" t="n">
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
         <v>80</v>
       </c>
-      <c r="R105" t="n">
+      <c r="S105" t="n">
         <v>5</v>
       </c>
-      <c r="S105" t="n">
+      <c r="T105" t="n">
         <v>13</v>
       </c>
-      <c r="T105" t="n">
+      <c r="U105" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6959,16 +7484,21 @@
       <c r="P106" t="n">
         <v>9</v>
       </c>
-      <c r="Q106" t="n">
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
         <v>80</v>
       </c>
-      <c r="R106" t="n">
+      <c r="S106" t="n">
         <v>4</v>
       </c>
-      <c r="S106" t="n">
+      <c r="T106" t="n">
         <v>13</v>
       </c>
-      <c r="T106" t="n">
+      <c r="U106" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7017,16 +7547,21 @@
       <c r="P107" t="n">
         <v>9</v>
       </c>
-      <c r="Q107" t="n">
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
         <v>80</v>
       </c>
-      <c r="R107" t="n">
+      <c r="S107" t="n">
         <v>3</v>
       </c>
-      <c r="S107" t="n">
+      <c r="T107" t="n">
         <v>13</v>
       </c>
-      <c r="T107" t="n">
+      <c r="U107" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7075,16 +7610,21 @@
       <c r="P108" t="n">
         <v>9</v>
       </c>
-      <c r="Q108" t="n">
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
         <v>80</v>
       </c>
-      <c r="R108" t="n">
-        <v>2</v>
-      </c>
       <c r="S108" t="n">
+        <v>2</v>
+      </c>
+      <c r="T108" t="n">
         <v>13</v>
       </c>
-      <c r="T108" t="n">
+      <c r="U108" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7133,16 +7673,21 @@
       <c r="P109" t="n">
         <v>9</v>
       </c>
-      <c r="Q109" t="n">
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
         <v>80</v>
       </c>
-      <c r="R109" t="n">
-        <v>1</v>
-      </c>
       <c r="S109" t="n">
+        <v>1</v>
+      </c>
+      <c r="T109" t="n">
         <v>13</v>
       </c>
-      <c r="T109" t="n">
+      <c r="U109" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7201,16 +7746,21 @@
       <c r="P110" t="n">
         <v>9</v>
       </c>
-      <c r="Q110" t="n">
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
         <v>79</v>
       </c>
-      <c r="R110" t="n">
-        <v>2</v>
-      </c>
       <c r="S110" t="n">
+        <v>2</v>
+      </c>
+      <c r="T110" t="n">
         <v>13</v>
       </c>
-      <c r="T110" t="n">
+      <c r="U110" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7259,16 +7809,21 @@
       <c r="P111" t="n">
         <v>9</v>
       </c>
-      <c r="Q111" t="n">
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
         <v>79</v>
       </c>
-      <c r="R111" t="n">
-        <v>1</v>
-      </c>
       <c r="S111" t="n">
+        <v>1</v>
+      </c>
+      <c r="T111" t="n">
         <v>13</v>
       </c>
-      <c r="T111" t="n">
+      <c r="U111" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7327,16 +7882,21 @@
       <c r="P112" t="n">
         <v>9</v>
       </c>
-      <c r="Q112" t="n">
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
         <v>78</v>
       </c>
-      <c r="R112" t="n">
+      <c r="S112" t="n">
         <v>3</v>
       </c>
-      <c r="S112" t="n">
+      <c r="T112" t="n">
         <v>13</v>
       </c>
-      <c r="T112" t="n">
+      <c r="U112" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7385,16 +7945,21 @@
       <c r="P113" t="n">
         <v>9</v>
       </c>
-      <c r="Q113" t="n">
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
         <v>78</v>
       </c>
-      <c r="R113" t="n">
-        <v>2</v>
-      </c>
       <c r="S113" t="n">
+        <v>2</v>
+      </c>
+      <c r="T113" t="n">
         <v>13</v>
       </c>
-      <c r="T113" t="n">
+      <c r="U113" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7443,16 +8008,21 @@
       <c r="P114" t="n">
         <v>9</v>
       </c>
-      <c r="Q114" t="n">
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
         <v>78</v>
       </c>
-      <c r="R114" t="n">
-        <v>1</v>
-      </c>
       <c r="S114" t="n">
+        <v>1</v>
+      </c>
+      <c r="T114" t="n">
         <v>13</v>
       </c>
-      <c r="T114" t="n">
+      <c r="U114" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7511,16 +8081,21 @@
       <c r="P115" t="n">
         <v>5</v>
       </c>
-      <c r="Q115" t="n">
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
         <v>45</v>
       </c>
-      <c r="R115" t="n">
+      <c r="S115" t="n">
         <v>6</v>
       </c>
-      <c r="S115" t="n">
-        <v>1</v>
-      </c>
       <c r="T115" t="n">
+        <v>1</v>
+      </c>
+      <c r="U115" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7573,16 +8148,21 @@
       <c r="P116" t="n">
         <v>5</v>
       </c>
-      <c r="Q116" t="n">
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
         <v>45</v>
       </c>
-      <c r="R116" t="n">
+      <c r="S116" t="n">
         <v>5</v>
       </c>
-      <c r="S116" t="n">
-        <v>1</v>
-      </c>
       <c r="T116" t="n">
+        <v>1</v>
+      </c>
+      <c r="U116" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7635,16 +8215,21 @@
       <c r="P117" t="n">
         <v>5</v>
       </c>
-      <c r="Q117" t="n">
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
         <v>45</v>
       </c>
-      <c r="R117" t="n">
+      <c r="S117" t="n">
         <v>4</v>
       </c>
-      <c r="S117" t="n">
-        <v>1</v>
-      </c>
       <c r="T117" t="n">
+        <v>1</v>
+      </c>
+      <c r="U117" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7697,16 +8282,21 @@
       <c r="P118" t="n">
         <v>5</v>
       </c>
-      <c r="Q118" t="n">
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
         <v>45</v>
       </c>
-      <c r="R118" t="n">
+      <c r="S118" t="n">
         <v>3</v>
       </c>
-      <c r="S118" t="n">
-        <v>1</v>
-      </c>
       <c r="T118" t="n">
+        <v>1</v>
+      </c>
+      <c r="U118" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7759,16 +8349,21 @@
       <c r="P119" t="n">
         <v>5</v>
       </c>
-      <c r="Q119" t="n">
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
         <v>45</v>
       </c>
-      <c r="R119" t="n">
-        <v>2</v>
-      </c>
       <c r="S119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T119" t="n">
+        <v>1</v>
+      </c>
+      <c r="U119" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7821,16 +8416,21 @@
       <c r="P120" t="n">
         <v>5</v>
       </c>
-      <c r="Q120" t="n">
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
         <v>45</v>
       </c>
-      <c r="R120" t="n">
-        <v>1</v>
-      </c>
       <c r="S120" t="n">
         <v>1</v>
       </c>
       <c r="T120" t="n">
+        <v>1</v>
+      </c>
+      <c r="U120" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7885,16 +8485,21 @@
       <c r="P121" t="n">
         <v>5</v>
       </c>
-      <c r="Q121" t="n">
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
         <v>44</v>
       </c>
-      <c r="R121" t="n">
+      <c r="S121" t="n">
         <v>5</v>
       </c>
-      <c r="S121" t="n">
-        <v>1</v>
-      </c>
       <c r="T121" t="n">
+        <v>1</v>
+      </c>
+      <c r="U121" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7945,16 +8550,21 @@
       <c r="P122" t="n">
         <v>5</v>
       </c>
-      <c r="Q122" t="n">
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
         <v>44</v>
       </c>
-      <c r="R122" t="n">
+      <c r="S122" t="n">
         <v>4</v>
       </c>
-      <c r="S122" t="n">
-        <v>1</v>
-      </c>
       <c r="T122" t="n">
+        <v>1</v>
+      </c>
+      <c r="U122" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8005,16 +8615,21 @@
       <c r="P123" t="n">
         <v>5</v>
       </c>
-      <c r="Q123" t="n">
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
         <v>44</v>
       </c>
-      <c r="R123" t="n">
+      <c r="S123" t="n">
         <v>3</v>
       </c>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
       <c r="T123" t="n">
+        <v>1</v>
+      </c>
+      <c r="U123" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8065,16 +8680,21 @@
       <c r="P124" t="n">
         <v>5</v>
       </c>
-      <c r="Q124" t="n">
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
         <v>44</v>
       </c>
-      <c r="R124" t="n">
-        <v>2</v>
-      </c>
       <c r="S124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T124" t="n">
+        <v>1</v>
+      </c>
+      <c r="U124" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8125,16 +8745,21 @@
       <c r="P125" t="n">
         <v>5</v>
       </c>
-      <c r="Q125" t="n">
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
         <v>44</v>
       </c>
-      <c r="R125" t="n">
-        <v>1</v>
-      </c>
       <c r="S125" t="n">
         <v>1</v>
       </c>
       <c r="T125" t="n">
+        <v>1</v>
+      </c>
+      <c r="U125" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8187,16 +8812,21 @@
       <c r="P126" t="n">
         <v>5</v>
       </c>
-      <c r="Q126" t="n">
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
         <v>43</v>
       </c>
-      <c r="R126" t="n">
+      <c r="S126" t="n">
         <v>7</v>
       </c>
-      <c r="S126" t="n">
-        <v>1</v>
-      </c>
       <c r="T126" t="n">
+        <v>1</v>
+      </c>
+      <c r="U126" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8245,16 +8875,21 @@
       <c r="P127" t="n">
         <v>5</v>
       </c>
-      <c r="Q127" t="n">
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
         <v>43</v>
       </c>
-      <c r="R127" t="n">
+      <c r="S127" t="n">
         <v>6</v>
       </c>
-      <c r="S127" t="n">
-        <v>1</v>
-      </c>
       <c r="T127" t="n">
+        <v>1</v>
+      </c>
+      <c r="U127" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8303,16 +8938,21 @@
       <c r="P128" t="n">
         <v>5</v>
       </c>
-      <c r="Q128" t="n">
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
         <v>43</v>
       </c>
-      <c r="R128" t="n">
+      <c r="S128" t="n">
         <v>5</v>
       </c>
-      <c r="S128" t="n">
-        <v>1</v>
-      </c>
       <c r="T128" t="n">
+        <v>1</v>
+      </c>
+      <c r="U128" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8361,16 +9001,21 @@
       <c r="P129" t="n">
         <v>5</v>
       </c>
-      <c r="Q129" t="n">
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
         <v>43</v>
       </c>
-      <c r="R129" t="n">
+      <c r="S129" t="n">
         <v>4</v>
       </c>
-      <c r="S129" t="n">
-        <v>1</v>
-      </c>
       <c r="T129" t="n">
+        <v>1</v>
+      </c>
+      <c r="U129" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8419,16 +9064,21 @@
       <c r="P130" t="n">
         <v>5</v>
       </c>
-      <c r="Q130" t="n">
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
         <v>43</v>
       </c>
-      <c r="R130" t="n">
+      <c r="S130" t="n">
         <v>3</v>
       </c>
-      <c r="S130" t="n">
-        <v>1</v>
-      </c>
       <c r="T130" t="n">
+        <v>1</v>
+      </c>
+      <c r="U130" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8477,16 +9127,21 @@
       <c r="P131" t="n">
         <v>5</v>
       </c>
-      <c r="Q131" t="n">
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
         <v>43</v>
       </c>
-      <c r="R131" t="n">
-        <v>2</v>
-      </c>
       <c r="S131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T131" t="n">
+        <v>1</v>
+      </c>
+      <c r="U131" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8535,16 +9190,21 @@
       <c r="P132" t="n">
         <v>5</v>
       </c>
-      <c r="Q132" t="n">
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
         <v>43</v>
       </c>
-      <c r="R132" t="n">
-        <v>1</v>
-      </c>
       <c r="S132" t="n">
         <v>1</v>
       </c>
       <c r="T132" t="n">
+        <v>1</v>
+      </c>
+      <c r="U132" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8599,16 +9259,21 @@
       <c r="P133" t="n">
         <v>5</v>
       </c>
-      <c r="Q133" t="n">
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
         <v>42</v>
       </c>
-      <c r="R133" t="n">
+      <c r="S133" t="n">
         <v>6</v>
       </c>
-      <c r="S133" t="n">
-        <v>1</v>
-      </c>
       <c r="T133" t="n">
+        <v>1</v>
+      </c>
+      <c r="U133" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8657,16 +9322,21 @@
       <c r="P134" t="n">
         <v>5</v>
       </c>
-      <c r="Q134" t="n">
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
         <v>42</v>
       </c>
-      <c r="R134" t="n">
+      <c r="S134" t="n">
         <v>5</v>
       </c>
-      <c r="S134" t="n">
-        <v>1</v>
-      </c>
       <c r="T134" t="n">
+        <v>1</v>
+      </c>
+      <c r="U134" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8715,16 +9385,21 @@
       <c r="P135" t="n">
         <v>5</v>
       </c>
-      <c r="Q135" t="n">
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
         <v>42</v>
       </c>
-      <c r="R135" t="n">
+      <c r="S135" t="n">
         <v>4</v>
       </c>
-      <c r="S135" t="n">
-        <v>1</v>
-      </c>
       <c r="T135" t="n">
+        <v>1</v>
+      </c>
+      <c r="U135" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8773,16 +9448,21 @@
       <c r="P136" t="n">
         <v>5</v>
       </c>
-      <c r="Q136" t="n">
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
         <v>42</v>
       </c>
-      <c r="R136" t="n">
+      <c r="S136" t="n">
         <v>3</v>
       </c>
-      <c r="S136" t="n">
-        <v>1</v>
-      </c>
       <c r="T136" t="n">
+        <v>1</v>
+      </c>
+      <c r="U136" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8831,16 +9511,21 @@
       <c r="P137" t="n">
         <v>5</v>
       </c>
-      <c r="Q137" t="n">
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
         <v>42</v>
       </c>
-      <c r="R137" t="n">
-        <v>2</v>
-      </c>
       <c r="S137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T137" t="n">
+        <v>1</v>
+      </c>
+      <c r="U137" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8889,16 +9574,21 @@
       <c r="P138" t="n">
         <v>5</v>
       </c>
-      <c r="Q138" t="n">
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
         <v>42</v>
       </c>
-      <c r="R138" t="n">
-        <v>1</v>
-      </c>
       <c r="S138" t="n">
         <v>1</v>
       </c>
       <c r="T138" t="n">
+        <v>1</v>
+      </c>
+      <c r="U138" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8955,16 +9645,21 @@
       <c r="P139" t="n">
         <v>6</v>
       </c>
-      <c r="Q139" t="n">
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
         <v>57</v>
       </c>
-      <c r="R139" t="n">
+      <c r="S139" t="n">
         <v>6</v>
       </c>
-      <c r="S139" t="n">
+      <c r="T139" t="n">
         <v>5</v>
       </c>
-      <c r="T139" t="n">
+      <c r="U139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9015,16 +9710,21 @@
       <c r="P140" t="n">
         <v>6</v>
       </c>
-      <c r="Q140" t="n">
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
         <v>57</v>
-      </c>
-      <c r="R140" t="n">
-        <v>5</v>
       </c>
       <c r="S140" t="n">
         <v>5</v>
       </c>
       <c r="T140" t="n">
+        <v>5</v>
+      </c>
+      <c r="U140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9075,16 +9775,21 @@
       <c r="P141" t="n">
         <v>6</v>
       </c>
-      <c r="Q141" t="n">
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
         <v>57</v>
       </c>
-      <c r="R141" t="n">
+      <c r="S141" t="n">
         <v>4</v>
       </c>
-      <c r="S141" t="n">
+      <c r="T141" t="n">
         <v>5</v>
       </c>
-      <c r="T141" t="n">
+      <c r="U141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9135,16 +9840,21 @@
       <c r="P142" t="n">
         <v>6</v>
       </c>
-      <c r="Q142" t="n">
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
         <v>57</v>
       </c>
-      <c r="R142" t="n">
+      <c r="S142" t="n">
         <v>3</v>
       </c>
-      <c r="S142" t="n">
+      <c r="T142" t="n">
         <v>5</v>
       </c>
-      <c r="T142" t="n">
+      <c r="U142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9195,16 +9905,21 @@
       <c r="P143" t="n">
         <v>6</v>
       </c>
-      <c r="Q143" t="n">
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
         <v>57</v>
       </c>
-      <c r="R143" t="n">
-        <v>2</v>
-      </c>
       <c r="S143" t="n">
+        <v>2</v>
+      </c>
+      <c r="T143" t="n">
         <v>5</v>
       </c>
-      <c r="T143" t="n">
+      <c r="U143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9255,16 +9970,21 @@
       <c r="P144" t="n">
         <v>6</v>
       </c>
-      <c r="Q144" t="n">
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
         <v>57</v>
       </c>
-      <c r="R144" t="n">
-        <v>1</v>
-      </c>
       <c r="S144" t="n">
+        <v>1</v>
+      </c>
+      <c r="T144" t="n">
         <v>5</v>
       </c>
-      <c r="T144" t="n">
+      <c r="U144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9325,16 +10045,21 @@
       <c r="P145" t="n">
         <v>6</v>
       </c>
-      <c r="Q145" t="n">
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
         <v>56</v>
       </c>
-      <c r="R145" t="n">
-        <v>2</v>
-      </c>
       <c r="S145" t="n">
+        <v>2</v>
+      </c>
+      <c r="T145" t="n">
         <v>5</v>
       </c>
-      <c r="T145" t="n">
+      <c r="U145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9385,16 +10110,21 @@
       <c r="P146" t="n">
         <v>6</v>
       </c>
-      <c r="Q146" t="n">
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
         <v>56</v>
       </c>
-      <c r="R146" t="n">
-        <v>1</v>
-      </c>
       <c r="S146" t="n">
+        <v>1</v>
+      </c>
+      <c r="T146" t="n">
         <v>5</v>
       </c>
-      <c r="T146" t="n">
+      <c r="U146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9451,16 +10181,21 @@
       <c r="P147" t="n">
         <v>6</v>
       </c>
-      <c r="Q147" t="n">
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
         <v>55</v>
       </c>
-      <c r="R147" t="n">
+      <c r="S147" t="n">
         <v>4</v>
       </c>
-      <c r="S147" t="n">
+      <c r="T147" t="n">
         <v>5</v>
       </c>
-      <c r="T147" t="n">
+      <c r="U147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9511,16 +10246,21 @@
       <c r="P148" t="n">
         <v>6</v>
       </c>
-      <c r="Q148" t="n">
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
         <v>55</v>
       </c>
-      <c r="R148" t="n">
+      <c r="S148" t="n">
         <v>3</v>
       </c>
-      <c r="S148" t="n">
+      <c r="T148" t="n">
         <v>5</v>
       </c>
-      <c r="T148" t="n">
+      <c r="U148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9571,16 +10311,21 @@
       <c r="P149" t="n">
         <v>6</v>
       </c>
-      <c r="Q149" t="n">
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
         <v>55</v>
       </c>
-      <c r="R149" t="n">
-        <v>2</v>
-      </c>
       <c r="S149" t="n">
+        <v>2</v>
+      </c>
+      <c r="T149" t="n">
         <v>5</v>
       </c>
-      <c r="T149" t="n">
+      <c r="U149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9631,16 +10376,21 @@
       <c r="P150" t="n">
         <v>6</v>
       </c>
-      <c r="Q150" t="n">
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
         <v>55</v>
       </c>
-      <c r="R150" t="n">
-        <v>1</v>
-      </c>
       <c r="S150" t="n">
+        <v>1</v>
+      </c>
+      <c r="T150" t="n">
         <v>5</v>
       </c>
-      <c r="T150" t="n">
+      <c r="U150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9699,16 +10449,21 @@
       <c r="P151" t="n">
         <v>6</v>
       </c>
-      <c r="Q151" t="n">
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
         <v>54</v>
       </c>
-      <c r="R151" t="n">
+      <c r="S151" t="n">
         <v>3</v>
       </c>
-      <c r="S151" t="n">
+      <c r="T151" t="n">
         <v>5</v>
       </c>
-      <c r="T151" t="n">
+      <c r="U151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9757,16 +10512,21 @@
       <c r="P152" t="n">
         <v>6</v>
       </c>
-      <c r="Q152" t="n">
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
         <v>54</v>
       </c>
-      <c r="R152" t="n">
-        <v>2</v>
-      </c>
       <c r="S152" t="n">
+        <v>2</v>
+      </c>
+      <c r="T152" t="n">
         <v>5</v>
       </c>
-      <c r="T152" t="n">
+      <c r="U152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9815,16 +10575,21 @@
       <c r="P153" t="n">
         <v>6</v>
       </c>
-      <c r="Q153" t="n">
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
         <v>54</v>
       </c>
-      <c r="R153" t="n">
-        <v>1</v>
-      </c>
       <c r="S153" t="n">
+        <v>1</v>
+      </c>
+      <c r="T153" t="n">
         <v>5</v>
       </c>
-      <c r="T153" t="n">
+      <c r="U153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9879,16 +10644,21 @@
       <c r="P154" t="n">
         <v>7</v>
       </c>
-      <c r="Q154" t="n">
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
         <v>63</v>
       </c>
-      <c r="R154" t="n">
+      <c r="S154" t="n">
         <v>4</v>
       </c>
-      <c r="S154" t="n">
+      <c r="T154" t="n">
         <v>8</v>
       </c>
-      <c r="T154" t="n">
+      <c r="U154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9937,16 +10707,21 @@
       <c r="P155" t="n">
         <v>7</v>
       </c>
-      <c r="Q155" t="n">
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
         <v>63</v>
       </c>
-      <c r="R155" t="n">
+      <c r="S155" t="n">
         <v>3</v>
       </c>
-      <c r="S155" t="n">
+      <c r="T155" t="n">
         <v>8</v>
       </c>
-      <c r="T155" t="n">
+      <c r="U155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9995,16 +10770,21 @@
       <c r="P156" t="n">
         <v>7</v>
       </c>
-      <c r="Q156" t="n">
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R156" t="n">
         <v>63</v>
       </c>
-      <c r="R156" t="n">
-        <v>2</v>
-      </c>
       <c r="S156" t="n">
+        <v>2</v>
+      </c>
+      <c r="T156" t="n">
         <v>8</v>
       </c>
-      <c r="T156" t="n">
+      <c r="U156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10053,16 +10833,21 @@
       <c r="P157" t="n">
         <v>7</v>
       </c>
-      <c r="Q157" t="n">
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
         <v>63</v>
       </c>
-      <c r="R157" t="n">
-        <v>1</v>
-      </c>
       <c r="S157" t="n">
+        <v>1</v>
+      </c>
+      <c r="T157" t="n">
         <v>8</v>
       </c>
-      <c r="T157" t="n">
+      <c r="U157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10117,16 +10902,21 @@
       <c r="P158" t="n">
         <v>7</v>
       </c>
-      <c r="Q158" t="n">
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
         <v>62</v>
       </c>
-      <c r="R158" t="n">
+      <c r="S158" t="n">
         <v>5</v>
       </c>
-      <c r="S158" t="n">
+      <c r="T158" t="n">
         <v>8</v>
       </c>
-      <c r="T158" t="n">
+      <c r="U158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10175,16 +10965,21 @@
       <c r="P159" t="n">
         <v>7</v>
       </c>
-      <c r="Q159" t="n">
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
         <v>62</v>
       </c>
-      <c r="R159" t="n">
+      <c r="S159" t="n">
         <v>4</v>
       </c>
-      <c r="S159" t="n">
+      <c r="T159" t="n">
         <v>8</v>
       </c>
-      <c r="T159" t="n">
+      <c r="U159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10233,16 +11028,21 @@
       <c r="P160" t="n">
         <v>7</v>
       </c>
-      <c r="Q160" t="n">
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R160" t="n">
         <v>62</v>
       </c>
-      <c r="R160" t="n">
+      <c r="S160" t="n">
         <v>3</v>
       </c>
-      <c r="S160" t="n">
+      <c r="T160" t="n">
         <v>8</v>
       </c>
-      <c r="T160" t="n">
+      <c r="U160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10291,16 +11091,21 @@
       <c r="P161" t="n">
         <v>7</v>
       </c>
-      <c r="Q161" t="n">
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R161" t="n">
         <v>62</v>
       </c>
-      <c r="R161" t="n">
-        <v>2</v>
-      </c>
       <c r="S161" t="n">
+        <v>2</v>
+      </c>
+      <c r="T161" t="n">
         <v>8</v>
       </c>
-      <c r="T161" t="n">
+      <c r="U161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10349,16 +11154,21 @@
       <c r="P162" t="n">
         <v>7</v>
       </c>
-      <c r="Q162" t="n">
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R162" t="n">
         <v>62</v>
       </c>
-      <c r="R162" t="n">
-        <v>1</v>
-      </c>
       <c r="S162" t="n">
+        <v>1</v>
+      </c>
+      <c r="T162" t="n">
         <v>8</v>
       </c>
-      <c r="T162" t="n">
+      <c r="U162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10413,16 +11223,21 @@
       <c r="P163" t="n">
         <v>7</v>
       </c>
-      <c r="Q163" t="n">
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R163" t="n">
         <v>61</v>
       </c>
-      <c r="R163" t="n">
+      <c r="S163" t="n">
         <v>5</v>
       </c>
-      <c r="S163" t="n">
+      <c r="T163" t="n">
         <v>8</v>
       </c>
-      <c r="T163" t="n">
+      <c r="U163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10471,16 +11286,21 @@
       <c r="P164" t="n">
         <v>7</v>
       </c>
-      <c r="Q164" t="n">
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R164" t="n">
         <v>61</v>
       </c>
-      <c r="R164" t="n">
+      <c r="S164" t="n">
         <v>4</v>
       </c>
-      <c r="S164" t="n">
+      <c r="T164" t="n">
         <v>8</v>
       </c>
-      <c r="T164" t="n">
+      <c r="U164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10529,16 +11349,21 @@
       <c r="P165" t="n">
         <v>7</v>
       </c>
-      <c r="Q165" t="n">
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R165" t="n">
         <v>61</v>
       </c>
-      <c r="R165" t="n">
+      <c r="S165" t="n">
         <v>3</v>
       </c>
-      <c r="S165" t="n">
+      <c r="T165" t="n">
         <v>8</v>
       </c>
-      <c r="T165" t="n">
+      <c r="U165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10587,16 +11412,21 @@
       <c r="P166" t="n">
         <v>7</v>
       </c>
-      <c r="Q166" t="n">
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R166" t="n">
         <v>61</v>
       </c>
-      <c r="R166" t="n">
-        <v>2</v>
-      </c>
       <c r="S166" t="n">
+        <v>2</v>
+      </c>
+      <c r="T166" t="n">
         <v>8</v>
       </c>
-      <c r="T166" t="n">
+      <c r="U166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10645,16 +11475,21 @@
       <c r="P167" t="n">
         <v>7</v>
       </c>
-      <c r="Q167" t="n">
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
         <v>61</v>
       </c>
-      <c r="R167" t="n">
-        <v>1</v>
-      </c>
       <c r="S167" t="n">
+        <v>1</v>
+      </c>
+      <c r="T167" t="n">
         <v>8</v>
       </c>
-      <c r="T167" t="n">
+      <c r="U167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10713,16 +11548,21 @@
       <c r="P168" t="n">
         <v>7</v>
       </c>
-      <c r="Q168" t="n">
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R168" t="n">
         <v>50</v>
       </c>
-      <c r="R168" t="n">
+      <c r="S168" t="n">
         <v>5</v>
       </c>
-      <c r="S168" t="n">
+      <c r="T168" t="n">
         <v>4</v>
       </c>
-      <c r="T168" t="n">
+      <c r="U168" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10771,16 +11611,21 @@
       <c r="P169" t="n">
         <v>7</v>
       </c>
-      <c r="Q169" t="n">
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
         <v>50</v>
-      </c>
-      <c r="R169" t="n">
-        <v>4</v>
       </c>
       <c r="S169" t="n">
         <v>4</v>
       </c>
       <c r="T169" t="n">
+        <v>4</v>
+      </c>
+      <c r="U169" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10829,16 +11674,21 @@
       <c r="P170" t="n">
         <v>7</v>
       </c>
-      <c r="Q170" t="n">
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
         <v>50</v>
       </c>
-      <c r="R170" t="n">
+      <c r="S170" t="n">
         <v>3</v>
       </c>
-      <c r="S170" t="n">
+      <c r="T170" t="n">
         <v>4</v>
       </c>
-      <c r="T170" t="n">
+      <c r="U170" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10887,16 +11737,21 @@
       <c r="P171" t="n">
         <v>7</v>
       </c>
-      <c r="Q171" t="n">
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
         <v>50</v>
       </c>
-      <c r="R171" t="n">
-        <v>2</v>
-      </c>
       <c r="S171" t="n">
+        <v>2</v>
+      </c>
+      <c r="T171" t="n">
         <v>4</v>
       </c>
-      <c r="T171" t="n">
+      <c r="U171" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10945,16 +11800,21 @@
       <c r="P172" t="n">
         <v>7</v>
       </c>
-      <c r="Q172" t="n">
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R172" t="n">
         <v>50</v>
       </c>
-      <c r="R172" t="n">
-        <v>1</v>
-      </c>
       <c r="S172" t="n">
+        <v>1</v>
+      </c>
+      <c r="T172" t="n">
         <v>4</v>
       </c>
-      <c r="T172" t="n">
+      <c r="U172" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11015,16 +11875,21 @@
       <c r="P173" t="n">
         <v>7</v>
       </c>
-      <c r="Q173" t="n">
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R173" t="n">
         <v>49</v>
       </c>
-      <c r="R173" t="n">
-        <v>2</v>
-      </c>
       <c r="S173" t="n">
+        <v>2</v>
+      </c>
+      <c r="T173" t="n">
         <v>4</v>
       </c>
-      <c r="T173" t="n">
+      <c r="U173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11077,16 +11942,21 @@
       <c r="P174" t="n">
         <v>7</v>
       </c>
-      <c r="Q174" t="n">
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
         <v>49</v>
       </c>
-      <c r="R174" t="n">
-        <v>1</v>
-      </c>
       <c r="S174" t="n">
+        <v>1</v>
+      </c>
+      <c r="T174" t="n">
         <v>4</v>
       </c>
-      <c r="T174" t="n">
+      <c r="U174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11145,16 +12015,21 @@
       <c r="P175" t="n">
         <v>7</v>
       </c>
-      <c r="Q175" t="n">
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R175" t="n">
         <v>48</v>
       </c>
-      <c r="R175" t="n">
+      <c r="S175" t="n">
         <v>5</v>
       </c>
-      <c r="S175" t="n">
+      <c r="T175" t="n">
         <v>4</v>
       </c>
-      <c r="T175" t="n">
+      <c r="U175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11207,16 +12082,21 @@
       <c r="P176" t="n">
         <v>7</v>
       </c>
-      <c r="Q176" t="n">
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
         <v>48</v>
-      </c>
-      <c r="R176" t="n">
-        <v>4</v>
       </c>
       <c r="S176" t="n">
         <v>4</v>
       </c>
       <c r="T176" t="n">
+        <v>4</v>
+      </c>
+      <c r="U176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11269,16 +12149,21 @@
       <c r="P177" t="n">
         <v>7</v>
       </c>
-      <c r="Q177" t="n">
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
         <v>48</v>
       </c>
-      <c r="R177" t="n">
+      <c r="S177" t="n">
         <v>3</v>
       </c>
-      <c r="S177" t="n">
+      <c r="T177" t="n">
         <v>4</v>
       </c>
-      <c r="T177" t="n">
+      <c r="U177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11331,16 +12216,21 @@
       <c r="P178" t="n">
         <v>7</v>
       </c>
-      <c r="Q178" t="n">
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
         <v>48</v>
       </c>
-      <c r="R178" t="n">
-        <v>2</v>
-      </c>
       <c r="S178" t="n">
+        <v>2</v>
+      </c>
+      <c r="T178" t="n">
         <v>4</v>
       </c>
-      <c r="T178" t="n">
+      <c r="U178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11393,16 +12283,21 @@
       <c r="P179" t="n">
         <v>7</v>
       </c>
-      <c r="Q179" t="n">
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
         <v>48</v>
       </c>
-      <c r="R179" t="n">
-        <v>1</v>
-      </c>
       <c r="S179" t="n">
+        <v>1</v>
+      </c>
+      <c r="T179" t="n">
         <v>4</v>
       </c>
-      <c r="T179" t="n">
+      <c r="U179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11465,16 +12360,21 @@
       <c r="P180" t="n">
         <v>7</v>
       </c>
-      <c r="Q180" t="n">
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R180" t="n">
         <v>47</v>
       </c>
-      <c r="R180" t="n">
+      <c r="S180" t="n">
         <v>5</v>
       </c>
-      <c r="S180" t="n">
+      <c r="T180" t="n">
         <v>4</v>
       </c>
-      <c r="T180" t="n">
+      <c r="U180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11527,16 +12427,21 @@
       <c r="P181" t="n">
         <v>7</v>
       </c>
-      <c r="Q181" t="n">
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R181" t="n">
         <v>47</v>
-      </c>
-      <c r="R181" t="n">
-        <v>4</v>
       </c>
       <c r="S181" t="n">
         <v>4</v>
       </c>
       <c r="T181" t="n">
+        <v>4</v>
+      </c>
+      <c r="U181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11589,16 +12494,21 @@
       <c r="P182" t="n">
         <v>7</v>
       </c>
-      <c r="Q182" t="n">
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R182" t="n">
         <v>47</v>
       </c>
-      <c r="R182" t="n">
+      <c r="S182" t="n">
         <v>3</v>
       </c>
-      <c r="S182" t="n">
+      <c r="T182" t="n">
         <v>4</v>
       </c>
-      <c r="T182" t="n">
+      <c r="U182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11651,16 +12561,21 @@
       <c r="P183" t="n">
         <v>7</v>
       </c>
-      <c r="Q183" t="n">
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R183" t="n">
         <v>47</v>
       </c>
-      <c r="R183" t="n">
-        <v>2</v>
-      </c>
       <c r="S183" t="n">
+        <v>2</v>
+      </c>
+      <c r="T183" t="n">
         <v>4</v>
       </c>
-      <c r="T183" t="n">
+      <c r="U183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11713,16 +12628,21 @@
       <c r="P184" t="n">
         <v>7</v>
       </c>
-      <c r="Q184" t="n">
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R184" t="n">
         <v>47</v>
       </c>
-      <c r="R184" t="n">
-        <v>1</v>
-      </c>
       <c r="S184" t="n">
+        <v>1</v>
+      </c>
+      <c r="T184" t="n">
         <v>4</v>
       </c>
-      <c r="T184" t="n">
+      <c r="U184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11777,16 +12697,21 @@
       <c r="P185" t="n">
         <v>6</v>
       </c>
-      <c r="Q185" t="n">
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R185" t="n">
         <v>51</v>
       </c>
-      <c r="R185" t="n">
+      <c r="S185" t="n">
         <v>6</v>
       </c>
-      <c r="S185" t="n">
-        <v>2</v>
-      </c>
       <c r="T185" t="n">
+        <v>2</v>
+      </c>
+      <c r="U185" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11837,16 +12762,21 @@
       <c r="P186" t="n">
         <v>6</v>
       </c>
-      <c r="Q186" t="n">
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
         <v>51</v>
       </c>
-      <c r="R186" t="n">
+      <c r="S186" t="n">
         <v>5</v>
       </c>
-      <c r="S186" t="n">
-        <v>2</v>
-      </c>
       <c r="T186" t="n">
+        <v>2</v>
+      </c>
+      <c r="U186" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11897,16 +12827,21 @@
       <c r="P187" t="n">
         <v>6</v>
       </c>
-      <c r="Q187" t="n">
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R187" t="n">
         <v>51</v>
       </c>
-      <c r="R187" t="n">
+      <c r="S187" t="n">
         <v>4</v>
       </c>
-      <c r="S187" t="n">
-        <v>2</v>
-      </c>
       <c r="T187" t="n">
+        <v>2</v>
+      </c>
+      <c r="U187" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11957,16 +12892,21 @@
       <c r="P188" t="n">
         <v>6</v>
       </c>
-      <c r="Q188" t="n">
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R188" t="n">
         <v>51</v>
       </c>
-      <c r="R188" t="n">
+      <c r="S188" t="n">
         <v>3</v>
       </c>
-      <c r="S188" t="n">
-        <v>2</v>
-      </c>
       <c r="T188" t="n">
+        <v>2</v>
+      </c>
+      <c r="U188" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12017,16 +12957,21 @@
       <c r="P189" t="n">
         <v>6</v>
       </c>
-      <c r="Q189" t="n">
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R189" t="n">
         <v>51</v>
       </c>
-      <c r="R189" t="n">
-        <v>2</v>
-      </c>
       <c r="S189" t="n">
         <v>2</v>
       </c>
       <c r="T189" t="n">
+        <v>2</v>
+      </c>
+      <c r="U189" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12077,16 +13022,21 @@
       <c r="P190" t="n">
         <v>6</v>
       </c>
-      <c r="Q190" t="n">
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R190" t="n">
         <v>51</v>
       </c>
-      <c r="R190" t="n">
-        <v>1</v>
-      </c>
       <c r="S190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T190" t="n">
+        <v>2</v>
+      </c>
+      <c r="U190" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12147,16 +13097,21 @@
       <c r="P191" t="n">
         <v>6</v>
       </c>
-      <c r="Q191" t="n">
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R191" t="n">
         <v>50</v>
       </c>
-      <c r="R191" t="n">
+      <c r="S191" t="n">
         <v>6</v>
       </c>
-      <c r="S191" t="n">
-        <v>2</v>
-      </c>
       <c r="T191" t="n">
+        <v>2</v>
+      </c>
+      <c r="U191" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12207,16 +13162,21 @@
       <c r="P192" t="n">
         <v>6</v>
       </c>
-      <c r="Q192" t="n">
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R192" t="n">
         <v>50</v>
       </c>
-      <c r="R192" t="n">
+      <c r="S192" t="n">
         <v>5</v>
       </c>
-      <c r="S192" t="n">
-        <v>2</v>
-      </c>
       <c r="T192" t="n">
+        <v>2</v>
+      </c>
+      <c r="U192" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12267,16 +13227,21 @@
       <c r="P193" t="n">
         <v>6</v>
       </c>
-      <c r="Q193" t="n">
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R193" t="n">
         <v>50</v>
       </c>
-      <c r="R193" t="n">
+      <c r="S193" t="n">
         <v>4</v>
       </c>
-      <c r="S193" t="n">
-        <v>2</v>
-      </c>
       <c r="T193" t="n">
+        <v>2</v>
+      </c>
+      <c r="U193" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12327,16 +13292,21 @@
       <c r="P194" t="n">
         <v>6</v>
       </c>
-      <c r="Q194" t="n">
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R194" t="n">
         <v>50</v>
       </c>
-      <c r="R194" t="n">
+      <c r="S194" t="n">
         <v>3</v>
       </c>
-      <c r="S194" t="n">
-        <v>2</v>
-      </c>
       <c r="T194" t="n">
+        <v>2</v>
+      </c>
+      <c r="U194" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12387,16 +13357,21 @@
       <c r="P195" t="n">
         <v>6</v>
       </c>
-      <c r="Q195" t="n">
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R195" t="n">
         <v>50</v>
       </c>
-      <c r="R195" t="n">
-        <v>2</v>
-      </c>
       <c r="S195" t="n">
         <v>2</v>
       </c>
       <c r="T195" t="n">
+        <v>2</v>
+      </c>
+      <c r="U195" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12447,16 +13422,21 @@
       <c r="P196" t="n">
         <v>6</v>
       </c>
-      <c r="Q196" t="n">
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R196" t="n">
         <v>50</v>
       </c>
-      <c r="R196" t="n">
-        <v>1</v>
-      </c>
       <c r="S196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T196" t="n">
+        <v>2</v>
+      </c>
+      <c r="U196" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12509,16 +13489,21 @@
       <c r="P197" t="n">
         <v>6</v>
       </c>
-      <c r="Q197" t="n">
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R197" t="n">
         <v>49</v>
       </c>
-      <c r="R197" t="n">
+      <c r="S197" t="n">
         <v>4</v>
       </c>
-      <c r="S197" t="n">
-        <v>2</v>
-      </c>
       <c r="T197" t="n">
+        <v>2</v>
+      </c>
+      <c r="U197" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12567,16 +13552,21 @@
       <c r="P198" t="n">
         <v>6</v>
       </c>
-      <c r="Q198" t="n">
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R198" t="n">
         <v>49</v>
       </c>
-      <c r="R198" t="n">
+      <c r="S198" t="n">
         <v>3</v>
       </c>
-      <c r="S198" t="n">
-        <v>2</v>
-      </c>
       <c r="T198" t="n">
+        <v>2</v>
+      </c>
+      <c r="U198" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12625,16 +13615,21 @@
       <c r="P199" t="n">
         <v>6</v>
       </c>
-      <c r="Q199" t="n">
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R199" t="n">
         <v>49</v>
       </c>
-      <c r="R199" t="n">
-        <v>2</v>
-      </c>
       <c r="S199" t="n">
         <v>2</v>
       </c>
       <c r="T199" t="n">
+        <v>2</v>
+      </c>
+      <c r="U199" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12683,16 +13678,21 @@
       <c r="P200" t="n">
         <v>6</v>
       </c>
-      <c r="Q200" t="n">
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R200" t="n">
         <v>49</v>
       </c>
-      <c r="R200" t="n">
-        <v>1</v>
-      </c>
       <c r="S200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T200" t="n">
+        <v>2</v>
+      </c>
+      <c r="U200" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12757,16 +13757,21 @@
       <c r="P201" t="n">
         <v>5</v>
       </c>
-      <c r="Q201" t="n">
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R201" t="n">
         <v>45</v>
       </c>
-      <c r="R201" t="n">
+      <c r="S201" t="n">
         <v>7</v>
       </c>
-      <c r="S201" t="n">
-        <v>2</v>
-      </c>
       <c r="T201" t="n">
+        <v>2</v>
+      </c>
+      <c r="U201" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12821,16 +13826,21 @@
       <c r="P202" t="n">
         <v>5</v>
       </c>
-      <c r="Q202" t="n">
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R202" t="n">
         <v>45</v>
       </c>
-      <c r="R202" t="n">
+      <c r="S202" t="n">
         <v>6</v>
       </c>
-      <c r="S202" t="n">
-        <v>2</v>
-      </c>
       <c r="T202" t="n">
+        <v>2</v>
+      </c>
+      <c r="U202" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12885,16 +13895,21 @@
       <c r="P203" t="n">
         <v>5</v>
       </c>
-      <c r="Q203" t="n">
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R203" t="n">
         <v>45</v>
       </c>
-      <c r="R203" t="n">
+      <c r="S203" t="n">
         <v>5</v>
       </c>
-      <c r="S203" t="n">
-        <v>2</v>
-      </c>
       <c r="T203" t="n">
+        <v>2</v>
+      </c>
+      <c r="U203" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12949,16 +13964,21 @@
       <c r="P204" t="n">
         <v>5</v>
       </c>
-      <c r="Q204" t="n">
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R204" t="n">
         <v>45</v>
       </c>
-      <c r="R204" t="n">
+      <c r="S204" t="n">
         <v>4</v>
       </c>
-      <c r="S204" t="n">
-        <v>2</v>
-      </c>
       <c r="T204" t="n">
+        <v>2</v>
+      </c>
+      <c r="U204" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13013,16 +14033,21 @@
       <c r="P205" t="n">
         <v>5</v>
       </c>
-      <c r="Q205" t="n">
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R205" t="n">
         <v>45</v>
       </c>
-      <c r="R205" t="n">
+      <c r="S205" t="n">
         <v>3</v>
       </c>
-      <c r="S205" t="n">
-        <v>2</v>
-      </c>
       <c r="T205" t="n">
+        <v>2</v>
+      </c>
+      <c r="U205" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13077,16 +14102,21 @@
       <c r="P206" t="n">
         <v>5</v>
       </c>
-      <c r="Q206" t="n">
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R206" t="n">
         <v>45</v>
       </c>
-      <c r="R206" t="n">
-        <v>2</v>
-      </c>
       <c r="S206" t="n">
         <v>2</v>
       </c>
       <c r="T206" t="n">
+        <v>2</v>
+      </c>
+      <c r="U206" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13141,16 +14171,21 @@
       <c r="P207" t="n">
         <v>5</v>
       </c>
-      <c r="Q207" t="n">
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R207" t="n">
         <v>45</v>
       </c>
-      <c r="R207" t="n">
-        <v>1</v>
-      </c>
       <c r="S207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T207" t="n">
+        <v>2</v>
+      </c>
+      <c r="U207" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13207,16 +14242,21 @@
       <c r="P208" t="n">
         <v>5</v>
       </c>
-      <c r="Q208" t="n">
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R208" t="n">
         <v>44</v>
       </c>
-      <c r="R208" t="n">
-        <v>2</v>
-      </c>
       <c r="S208" t="n">
         <v>2</v>
       </c>
       <c r="T208" t="n">
+        <v>2</v>
+      </c>
+      <c r="U208" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13269,16 +14309,21 @@
       <c r="P209" t="n">
         <v>5</v>
       </c>
-      <c r="Q209" t="n">
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R209" t="n">
         <v>44</v>
       </c>
-      <c r="R209" t="n">
-        <v>1</v>
-      </c>
       <c r="S209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T209" t="n">
+        <v>2</v>
+      </c>
+      <c r="U209" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13337,16 +14382,21 @@
       <c r="P210" t="n">
         <v>5</v>
       </c>
-      <c r="Q210" t="n">
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R210" t="n">
         <v>43</v>
       </c>
-      <c r="R210" t="n">
+      <c r="S210" t="n">
         <v>5</v>
       </c>
-      <c r="S210" t="n">
-        <v>2</v>
-      </c>
       <c r="T210" t="n">
+        <v>2</v>
+      </c>
+      <c r="U210" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13399,16 +14449,21 @@
       <c r="P211" t="n">
         <v>5</v>
       </c>
-      <c r="Q211" t="n">
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R211" t="n">
         <v>43</v>
       </c>
-      <c r="R211" t="n">
+      <c r="S211" t="n">
         <v>4</v>
       </c>
-      <c r="S211" t="n">
-        <v>2</v>
-      </c>
       <c r="T211" t="n">
+        <v>2</v>
+      </c>
+      <c r="U211" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13461,16 +14516,21 @@
       <c r="P212" t="n">
         <v>5</v>
       </c>
-      <c r="Q212" t="n">
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R212" t="n">
         <v>43</v>
       </c>
-      <c r="R212" t="n">
+      <c r="S212" t="n">
         <v>3</v>
       </c>
-      <c r="S212" t="n">
-        <v>2</v>
-      </c>
       <c r="T212" t="n">
+        <v>2</v>
+      </c>
+      <c r="U212" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13523,16 +14583,21 @@
       <c r="P213" t="n">
         <v>5</v>
       </c>
-      <c r="Q213" t="n">
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R213" t="n">
         <v>43</v>
       </c>
-      <c r="R213" t="n">
-        <v>2</v>
-      </c>
       <c r="S213" t="n">
         <v>2</v>
       </c>
       <c r="T213" t="n">
+        <v>2</v>
+      </c>
+      <c r="U213" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13585,16 +14650,21 @@
       <c r="P214" t="n">
         <v>5</v>
       </c>
-      <c r="Q214" t="n">
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R214" t="n">
         <v>43</v>
       </c>
-      <c r="R214" t="n">
-        <v>1</v>
-      </c>
       <c r="S214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T214" t="n">
+        <v>2</v>
+      </c>
+      <c r="U214" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13657,16 +14727,21 @@
       <c r="P215" t="n">
         <v>5</v>
       </c>
-      <c r="Q215" t="n">
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R215" t="n">
         <v>42</v>
       </c>
-      <c r="R215" t="n">
+      <c r="S215" t="n">
         <v>8</v>
       </c>
-      <c r="S215" t="n">
-        <v>2</v>
-      </c>
       <c r="T215" t="n">
+        <v>2</v>
+      </c>
+      <c r="U215" t="n">
         <v>3</v>
       </c>
     </row>
@@ -13719,16 +14794,21 @@
       <c r="P216" t="n">
         <v>5</v>
       </c>
-      <c r="Q216" t="n">
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R216" t="n">
         <v>42</v>
       </c>
-      <c r="R216" t="n">
+      <c r="S216" t="n">
         <v>7</v>
       </c>
-      <c r="S216" t="n">
-        <v>2</v>
-      </c>
       <c r="T216" t="n">
+        <v>2</v>
+      </c>
+      <c r="U216" t="n">
         <v>3</v>
       </c>
     </row>
@@ -13781,16 +14861,21 @@
       <c r="P217" t="n">
         <v>5</v>
       </c>
-      <c r="Q217" t="n">
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R217" t="n">
         <v>42</v>
       </c>
-      <c r="R217" t="n">
+      <c r="S217" t="n">
         <v>6</v>
       </c>
-      <c r="S217" t="n">
-        <v>2</v>
-      </c>
       <c r="T217" t="n">
+        <v>2</v>
+      </c>
+      <c r="U217" t="n">
         <v>3</v>
       </c>
     </row>
@@ -13843,16 +14928,21 @@
       <c r="P218" t="n">
         <v>5</v>
       </c>
-      <c r="Q218" t="n">
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R218" t="n">
         <v>42</v>
       </c>
-      <c r="R218" t="n">
+      <c r="S218" t="n">
         <v>5</v>
       </c>
-      <c r="S218" t="n">
-        <v>2</v>
-      </c>
       <c r="T218" t="n">
+        <v>2</v>
+      </c>
+      <c r="U218" t="n">
         <v>3</v>
       </c>
     </row>
@@ -13905,16 +14995,21 @@
       <c r="P219" t="n">
         <v>5</v>
       </c>
-      <c r="Q219" t="n">
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R219" t="n">
         <v>42</v>
       </c>
-      <c r="R219" t="n">
+      <c r="S219" t="n">
         <v>4</v>
       </c>
-      <c r="S219" t="n">
-        <v>2</v>
-      </c>
       <c r="T219" t="n">
+        <v>2</v>
+      </c>
+      <c r="U219" t="n">
         <v>3</v>
       </c>
     </row>
@@ -13967,16 +15062,21 @@
       <c r="P220" t="n">
         <v>5</v>
       </c>
-      <c r="Q220" t="n">
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R220" t="n">
         <v>42</v>
       </c>
-      <c r="R220" t="n">
+      <c r="S220" t="n">
         <v>3</v>
       </c>
-      <c r="S220" t="n">
-        <v>2</v>
-      </c>
       <c r="T220" t="n">
+        <v>2</v>
+      </c>
+      <c r="U220" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14029,16 +15129,21 @@
       <c r="P221" t="n">
         <v>5</v>
       </c>
-      <c r="Q221" t="n">
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R221" t="n">
         <v>42</v>
       </c>
-      <c r="R221" t="n">
-        <v>2</v>
-      </c>
       <c r="S221" t="n">
         <v>2</v>
       </c>
       <c r="T221" t="n">
+        <v>2</v>
+      </c>
+      <c r="U221" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14091,16 +15196,21 @@
       <c r="P222" t="n">
         <v>5</v>
       </c>
-      <c r="Q222" t="n">
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R222" t="n">
         <v>42</v>
       </c>
-      <c r="R222" t="n">
-        <v>1</v>
-      </c>
       <c r="S222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T222" t="n">
+        <v>2</v>
+      </c>
+      <c r="U222" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14157,16 +15267,21 @@
       <c r="P223" t="n">
         <v>5</v>
       </c>
-      <c r="Q223" t="n">
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R223" t="n">
         <v>49</v>
       </c>
-      <c r="R223" t="n">
+      <c r="S223" t="n">
         <v>3</v>
       </c>
-      <c r="S223" t="n">
+      <c r="T223" t="n">
         <v>8</v>
       </c>
-      <c r="T223" t="n">
+      <c r="U223" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14217,16 +15332,21 @@
       <c r="P224" t="n">
         <v>5</v>
       </c>
-      <c r="Q224" t="n">
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R224" t="n">
         <v>49</v>
       </c>
-      <c r="R224" t="n">
-        <v>2</v>
-      </c>
       <c r="S224" t="n">
+        <v>2</v>
+      </c>
+      <c r="T224" t="n">
         <v>8</v>
       </c>
-      <c r="T224" t="n">
+      <c r="U224" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14277,16 +15397,21 @@
       <c r="P225" t="n">
         <v>5</v>
       </c>
-      <c r="Q225" t="n">
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R225" t="n">
         <v>49</v>
       </c>
-      <c r="R225" t="n">
-        <v>1</v>
-      </c>
       <c r="S225" t="n">
+        <v>1</v>
+      </c>
+      <c r="T225" t="n">
         <v>8</v>
       </c>
-      <c r="T225" t="n">
+      <c r="U225" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14339,16 +15464,21 @@
       <c r="P226" t="n">
         <v>5</v>
       </c>
-      <c r="Q226" t="n">
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R226" t="n">
         <v>48</v>
       </c>
-      <c r="R226" t="n">
+      <c r="S226" t="n">
         <v>4</v>
       </c>
-      <c r="S226" t="n">
+      <c r="T226" t="n">
         <v>8</v>
       </c>
-      <c r="T226" t="n">
+      <c r="U226" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14397,16 +15527,21 @@
       <c r="P227" t="n">
         <v>5</v>
       </c>
-      <c r="Q227" t="n">
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R227" t="n">
         <v>48</v>
       </c>
-      <c r="R227" t="n">
+      <c r="S227" t="n">
         <v>3</v>
       </c>
-      <c r="S227" t="n">
+      <c r="T227" t="n">
         <v>8</v>
       </c>
-      <c r="T227" t="n">
+      <c r="U227" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14455,16 +15590,21 @@
       <c r="P228" t="n">
         <v>5</v>
       </c>
-      <c r="Q228" t="n">
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R228" t="n">
         <v>48</v>
       </c>
-      <c r="R228" t="n">
-        <v>2</v>
-      </c>
       <c r="S228" t="n">
+        <v>2</v>
+      </c>
+      <c r="T228" t="n">
         <v>8</v>
       </c>
-      <c r="T228" t="n">
+      <c r="U228" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14513,16 +15653,21 @@
       <c r="P229" t="n">
         <v>5</v>
       </c>
-      <c r="Q229" t="n">
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R229" t="n">
         <v>48</v>
       </c>
-      <c r="R229" t="n">
-        <v>1</v>
-      </c>
       <c r="S229" t="n">
+        <v>1</v>
+      </c>
+      <c r="T229" t="n">
         <v>8</v>
       </c>
-      <c r="T229" t="n">
+      <c r="U229" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14577,16 +15722,21 @@
       <c r="P230" t="n">
         <v>5</v>
       </c>
-      <c r="Q230" t="n">
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R230" t="n">
         <v>47</v>
       </c>
-      <c r="R230" t="n">
+      <c r="S230" t="n">
         <v>3</v>
       </c>
-      <c r="S230" t="n">
+      <c r="T230" t="n">
         <v>8</v>
       </c>
-      <c r="T230" t="n">
+      <c r="U230" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14635,16 +15785,21 @@
       <c r="P231" t="n">
         <v>5</v>
       </c>
-      <c r="Q231" t="n">
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R231" t="n">
         <v>47</v>
       </c>
-      <c r="R231" t="n">
-        <v>2</v>
-      </c>
       <c r="S231" t="n">
+        <v>2</v>
+      </c>
+      <c r="T231" t="n">
         <v>8</v>
       </c>
-      <c r="T231" t="n">
+      <c r="U231" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14693,16 +15848,21 @@
       <c r="P232" t="n">
         <v>5</v>
       </c>
-      <c r="Q232" t="n">
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R232" t="n">
         <v>47</v>
       </c>
-      <c r="R232" t="n">
-        <v>1</v>
-      </c>
       <c r="S232" t="n">
+        <v>1</v>
+      </c>
+      <c r="T232" t="n">
         <v>8</v>
       </c>
-      <c r="T232" t="n">
+      <c r="U232" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14759,16 +15919,21 @@
       <c r="P233" t="n">
         <v>5</v>
       </c>
-      <c r="Q233" t="n">
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R233" t="n">
         <v>46</v>
       </c>
-      <c r="R233" t="n">
-        <v>1</v>
-      </c>
       <c r="S233" t="n">
+        <v>1</v>
+      </c>
+      <c r="T233" t="n">
         <v>8</v>
       </c>
-      <c r="T233" t="n">
+      <c r="U233" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14825,16 +15990,21 @@
       <c r="P234" t="n">
         <v>5</v>
       </c>
-      <c r="Q234" t="n">
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R234" t="n">
         <v>45</v>
       </c>
-      <c r="R234" t="n">
-        <v>1</v>
-      </c>
       <c r="S234" t="n">
+        <v>1</v>
+      </c>
+      <c r="T234" t="n">
         <v>8</v>
       </c>
-      <c r="T234" t="n">
+      <c r="U234" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14891,16 +16061,21 @@
       <c r="P235" t="n">
         <v>5</v>
       </c>
-      <c r="Q235" t="n">
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R235" t="n">
         <v>58</v>
       </c>
-      <c r="R235" t="n">
+      <c r="S235" t="n">
         <v>3</v>
       </c>
-      <c r="S235" t="n">
+      <c r="T235" t="n">
         <v>13</v>
       </c>
-      <c r="T235" t="n">
+      <c r="U235" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14951,16 +16126,21 @@
       <c r="P236" t="n">
         <v>5</v>
       </c>
-      <c r="Q236" t="n">
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R236" t="n">
         <v>58</v>
       </c>
-      <c r="R236" t="n">
-        <v>2</v>
-      </c>
       <c r="S236" t="n">
+        <v>2</v>
+      </c>
+      <c r="T236" t="n">
         <v>13</v>
       </c>
-      <c r="T236" t="n">
+      <c r="U236" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15011,16 +16191,21 @@
       <c r="P237" t="n">
         <v>5</v>
       </c>
-      <c r="Q237" t="n">
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R237" t="n">
         <v>58</v>
       </c>
-      <c r="R237" t="n">
-        <v>1</v>
-      </c>
       <c r="S237" t="n">
+        <v>1</v>
+      </c>
+      <c r="T237" t="n">
         <v>13</v>
       </c>
-      <c r="T237" t="n">
+      <c r="U237" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15073,16 +16258,21 @@
       <c r="P238" t="n">
         <v>5</v>
       </c>
-      <c r="Q238" t="n">
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R238" t="n">
         <v>57</v>
       </c>
-      <c r="R238" t="n">
-        <v>1</v>
-      </c>
       <c r="S238" t="n">
+        <v>1</v>
+      </c>
+      <c r="T238" t="n">
         <v>13</v>
       </c>
-      <c r="T238" t="n">
+      <c r="U238" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15141,16 +16331,21 @@
       <c r="P239" t="n">
         <v>5</v>
       </c>
-      <c r="Q239" t="n">
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R239" t="n">
         <v>56</v>
       </c>
-      <c r="R239" t="n">
-        <v>2</v>
-      </c>
       <c r="S239" t="n">
+        <v>2</v>
+      </c>
+      <c r="T239" t="n">
         <v>13</v>
       </c>
-      <c r="T239" t="n">
+      <c r="U239" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15199,16 +16394,21 @@
       <c r="P240" t="n">
         <v>5</v>
       </c>
-      <c r="Q240" t="n">
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R240" t="n">
         <v>56</v>
       </c>
-      <c r="R240" t="n">
-        <v>1</v>
-      </c>
       <c r="S240" t="n">
+        <v>1</v>
+      </c>
+      <c r="T240" t="n">
         <v>13</v>
       </c>
-      <c r="T240" t="n">
+      <c r="U240" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15259,16 +16459,21 @@
       <c r="P241" t="n">
         <v>5</v>
       </c>
-      <c r="Q241" t="n">
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R241" t="n">
         <v>55</v>
       </c>
-      <c r="R241" t="n">
+      <c r="S241" t="n">
         <v>4</v>
       </c>
-      <c r="S241" t="n">
+      <c r="T241" t="n">
         <v>13</v>
       </c>
-      <c r="T241" t="n">
+      <c r="U241" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15315,16 +16520,21 @@
       <c r="P242" t="n">
         <v>5</v>
       </c>
-      <c r="Q242" t="n">
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R242" t="n">
         <v>55</v>
       </c>
-      <c r="R242" t="n">
+      <c r="S242" t="n">
         <v>3</v>
       </c>
-      <c r="S242" t="n">
+      <c r="T242" t="n">
         <v>13</v>
       </c>
-      <c r="T242" t="n">
+      <c r="U242" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15371,16 +16581,21 @@
       <c r="P243" t="n">
         <v>5</v>
       </c>
-      <c r="Q243" t="n">
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R243" t="n">
         <v>55</v>
       </c>
-      <c r="R243" t="n">
-        <v>2</v>
-      </c>
       <c r="S243" t="n">
+        <v>2</v>
+      </c>
+      <c r="T243" t="n">
         <v>13</v>
       </c>
-      <c r="T243" t="n">
+      <c r="U243" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15427,16 +16642,21 @@
       <c r="P244" t="n">
         <v>5</v>
       </c>
-      <c r="Q244" t="n">
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R244" t="n">
         <v>55</v>
       </c>
-      <c r="R244" t="n">
-        <v>1</v>
-      </c>
       <c r="S244" t="n">
+        <v>1</v>
+      </c>
+      <c r="T244" t="n">
         <v>13</v>
       </c>
-      <c r="T244" t="n">
+      <c r="U244" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15493,16 +16713,21 @@
       <c r="P245" t="n">
         <v>5</v>
       </c>
-      <c r="Q245" t="n">
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R245" t="n">
         <v>54</v>
       </c>
-      <c r="R245" t="n">
-        <v>1</v>
-      </c>
       <c r="S245" t="n">
+        <v>1</v>
+      </c>
+      <c r="T245" t="n">
         <v>13</v>
       </c>
-      <c r="T245" t="n">
+      <c r="U245" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15557,16 +16782,21 @@
       <c r="P246" t="n">
         <v>5</v>
       </c>
-      <c r="Q246" t="n">
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R246" t="n">
         <v>53</v>
       </c>
-      <c r="R246" t="n">
+      <c r="S246" t="n">
         <v>3</v>
       </c>
-      <c r="S246" t="n">
+      <c r="T246" t="n">
         <v>12</v>
       </c>
-      <c r="T246" t="n">
+      <c r="U246" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15613,16 +16843,21 @@
       <c r="P247" t="n">
         <v>5</v>
       </c>
-      <c r="Q247" t="n">
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R247" t="n">
         <v>53</v>
       </c>
-      <c r="R247" t="n">
-        <v>2</v>
-      </c>
       <c r="S247" t="n">
+        <v>2</v>
+      </c>
+      <c r="T247" t="n">
         <v>12</v>
       </c>
-      <c r="T247" t="n">
+      <c r="U247" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15669,16 +16904,21 @@
       <c r="P248" t="n">
         <v>5</v>
       </c>
-      <c r="Q248" t="n">
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R248" t="n">
         <v>53</v>
       </c>
-      <c r="R248" t="n">
-        <v>1</v>
-      </c>
       <c r="S248" t="n">
+        <v>1</v>
+      </c>
+      <c r="T248" t="n">
         <v>12</v>
       </c>
-      <c r="T248" t="n">
+      <c r="U248" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15735,16 +16975,21 @@
       <c r="P249" t="n">
         <v>8</v>
       </c>
-      <c r="Q249" t="n">
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R249" t="n">
         <v>67</v>
       </c>
-      <c r="R249" t="n">
+      <c r="S249" t="n">
         <v>3</v>
       </c>
-      <c r="S249" t="n">
-        <v>2</v>
-      </c>
       <c r="T249" t="n">
+        <v>2</v>
+      </c>
+      <c r="U249" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15795,16 +17040,21 @@
       <c r="P250" t="n">
         <v>8</v>
       </c>
-      <c r="Q250" t="n">
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R250" t="n">
         <v>67</v>
       </c>
-      <c r="R250" t="n">
-        <v>2</v>
-      </c>
       <c r="S250" t="n">
         <v>2</v>
       </c>
       <c r="T250" t="n">
+        <v>2</v>
+      </c>
+      <c r="U250" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15855,16 +17105,21 @@
       <c r="P251" t="n">
         <v>8</v>
       </c>
-      <c r="Q251" t="n">
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R251" t="n">
         <v>67</v>
       </c>
-      <c r="R251" t="n">
-        <v>1</v>
-      </c>
       <c r="S251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T251" t="n">
+        <v>2</v>
+      </c>
+      <c r="U251" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15921,16 +17176,21 @@
       <c r="P252" t="n">
         <v>8</v>
       </c>
-      <c r="Q252" t="n">
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R252" t="n">
         <v>66</v>
       </c>
-      <c r="R252" t="n">
+      <c r="S252" t="n">
         <v>3</v>
       </c>
-      <c r="S252" t="n">
-        <v>2</v>
-      </c>
       <c r="T252" t="n">
+        <v>2</v>
+      </c>
+      <c r="U252" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15981,16 +17241,21 @@
       <c r="P253" t="n">
         <v>8</v>
       </c>
-      <c r="Q253" t="n">
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R253" t="n">
         <v>66</v>
       </c>
-      <c r="R253" t="n">
-        <v>2</v>
-      </c>
       <c r="S253" t="n">
         <v>2</v>
       </c>
       <c r="T253" t="n">
+        <v>2</v>
+      </c>
+      <c r="U253" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16041,16 +17306,21 @@
       <c r="P254" t="n">
         <v>8</v>
       </c>
-      <c r="Q254" t="n">
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R254" t="n">
         <v>66</v>
       </c>
-      <c r="R254" t="n">
-        <v>1</v>
-      </c>
       <c r="S254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T254" t="n">
+        <v>2</v>
+      </c>
+      <c r="U254" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16103,16 +17373,21 @@
       <c r="P255" t="n">
         <v>8</v>
       </c>
-      <c r="Q255" t="n">
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R255" t="n">
         <v>65</v>
       </c>
-      <c r="R255" t="n">
+      <c r="S255" t="n">
         <v>4</v>
       </c>
-      <c r="S255" t="n">
-        <v>2</v>
-      </c>
       <c r="T255" t="n">
+        <v>2</v>
+      </c>
+      <c r="U255" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16161,16 +17436,21 @@
       <c r="P256" t="n">
         <v>8</v>
       </c>
-      <c r="Q256" t="n">
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R256" t="n">
         <v>65</v>
       </c>
-      <c r="R256" t="n">
+      <c r="S256" t="n">
         <v>3</v>
       </c>
-      <c r="S256" t="n">
-        <v>2</v>
-      </c>
       <c r="T256" t="n">
+        <v>2</v>
+      </c>
+      <c r="U256" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16219,16 +17499,21 @@
       <c r="P257" t="n">
         <v>8</v>
       </c>
-      <c r="Q257" t="n">
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R257" t="n">
         <v>65</v>
       </c>
-      <c r="R257" t="n">
-        <v>2</v>
-      </c>
       <c r="S257" t="n">
         <v>2</v>
       </c>
       <c r="T257" t="n">
+        <v>2</v>
+      </c>
+      <c r="U257" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16277,16 +17562,21 @@
       <c r="P258" t="n">
         <v>8</v>
       </c>
-      <c r="Q258" t="n">
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R258" t="n">
         <v>65</v>
       </c>
-      <c r="R258" t="n">
-        <v>1</v>
-      </c>
       <c r="S258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T258" t="n">
+        <v>2</v>
+      </c>
+      <c r="U258" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16343,16 +17633,21 @@
       <c r="P259" t="n">
         <v>8</v>
       </c>
-      <c r="Q259" t="n">
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R259" t="n">
         <v>64</v>
       </c>
-      <c r="R259" t="n">
-        <v>1</v>
-      </c>
       <c r="S259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T259" t="n">
+        <v>2</v>
+      </c>
+      <c r="U259" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16409,16 +17704,21 @@
       <c r="P260" t="n">
         <v>8</v>
       </c>
-      <c r="Q260" t="n">
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R260" t="n">
         <v>63</v>
       </c>
-      <c r="R260" t="n">
-        <v>1</v>
-      </c>
       <c r="S260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T260" t="n">
+        <v>2</v>
+      </c>
+      <c r="U260" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16471,16 +17771,21 @@
       <c r="P261" t="n">
         <v>8</v>
       </c>
-      <c r="Q261" t="n">
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R261" t="n">
         <v>54</v>
       </c>
-      <c r="R261" t="n">
+      <c r="S261" t="n">
         <v>3</v>
       </c>
-      <c r="S261" t="n">
-        <v>1</v>
-      </c>
       <c r="T261" t="n">
+        <v>1</v>
+      </c>
+      <c r="U261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16527,16 +17832,21 @@
       <c r="P262" t="n">
         <v>8</v>
       </c>
-      <c r="Q262" t="n">
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R262" t="n">
         <v>54</v>
       </c>
-      <c r="R262" t="n">
-        <v>2</v>
-      </c>
       <c r="S262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T262" t="n">
+        <v>1</v>
+      </c>
+      <c r="U262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16583,16 +17893,21 @@
       <c r="P263" t="n">
         <v>8</v>
       </c>
-      <c r="Q263" t="n">
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R263" t="n">
         <v>54</v>
       </c>
-      <c r="R263" t="n">
-        <v>1</v>
-      </c>
       <c r="S263" t="n">
         <v>1</v>
       </c>
       <c r="T263" t="n">
+        <v>1</v>
+      </c>
+      <c r="U263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16645,16 +17960,21 @@
       <c r="P264" t="n">
         <v>8</v>
       </c>
-      <c r="Q264" t="n">
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R264" t="n">
         <v>53</v>
       </c>
-      <c r="R264" t="n">
+      <c r="S264" t="n">
         <v>3</v>
       </c>
-      <c r="S264" t="n">
-        <v>1</v>
-      </c>
       <c r="T264" t="n">
+        <v>1</v>
+      </c>
+      <c r="U264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16701,16 +18021,21 @@
       <c r="P265" t="n">
         <v>8</v>
       </c>
-      <c r="Q265" t="n">
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R265" t="n">
         <v>53</v>
       </c>
-      <c r="R265" t="n">
-        <v>2</v>
-      </c>
       <c r="S265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T265" t="n">
+        <v>1</v>
+      </c>
+      <c r="U265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16757,16 +18082,21 @@
       <c r="P266" t="n">
         <v>8</v>
       </c>
-      <c r="Q266" t="n">
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R266" t="n">
         <v>53</v>
       </c>
-      <c r="R266" t="n">
-        <v>1</v>
-      </c>
       <c r="S266" t="n">
         <v>1</v>
       </c>
       <c r="T266" t="n">
+        <v>1</v>
+      </c>
+      <c r="U266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16819,16 +18149,21 @@
       <c r="P267" t="n">
         <v>8</v>
       </c>
-      <c r="Q267" t="n">
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R267" t="n">
         <v>52</v>
       </c>
-      <c r="R267" t="n">
+      <c r="S267" t="n">
         <v>3</v>
       </c>
-      <c r="S267" t="n">
-        <v>1</v>
-      </c>
       <c r="T267" t="n">
+        <v>1</v>
+      </c>
+      <c r="U267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16875,16 +18210,21 @@
       <c r="P268" t="n">
         <v>8</v>
       </c>
-      <c r="Q268" t="n">
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R268" t="n">
         <v>52</v>
       </c>
-      <c r="R268" t="n">
-        <v>2</v>
-      </c>
       <c r="S268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T268" t="n">
+        <v>1</v>
+      </c>
+      <c r="U268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16931,16 +18271,21 @@
       <c r="P269" t="n">
         <v>8</v>
       </c>
-      <c r="Q269" t="n">
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R269" t="n">
         <v>52</v>
       </c>
-      <c r="R269" t="n">
-        <v>1</v>
-      </c>
       <c r="S269" t="n">
         <v>1</v>
       </c>
       <c r="T269" t="n">
+        <v>1</v>
+      </c>
+      <c r="U269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16999,16 +18344,21 @@
       <c r="P270" t="n">
         <v>8</v>
       </c>
-      <c r="Q270" t="n">
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R270" t="n">
         <v>70</v>
       </c>
-      <c r="R270" t="n">
+      <c r="S270" t="n">
         <v>3</v>
       </c>
-      <c r="S270" t="n">
+      <c r="T270" t="n">
         <v>5</v>
       </c>
-      <c r="T270" t="n">
+      <c r="U270" t="n">
         <v>8</v>
       </c>
     </row>
@@ -17057,16 +18407,21 @@
       <c r="P271" t="n">
         <v>8</v>
       </c>
-      <c r="Q271" t="n">
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R271" t="n">
         <v>70</v>
       </c>
-      <c r="R271" t="n">
-        <v>2</v>
-      </c>
       <c r="S271" t="n">
+        <v>2</v>
+      </c>
+      <c r="T271" t="n">
         <v>5</v>
       </c>
-      <c r="T271" t="n">
+      <c r="U271" t="n">
         <v>8</v>
       </c>
     </row>
@@ -17115,16 +18470,21 @@
       <c r="P272" t="n">
         <v>8</v>
       </c>
-      <c r="Q272" t="n">
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R272" t="n">
         <v>70</v>
       </c>
-      <c r="R272" t="n">
-        <v>1</v>
-      </c>
       <c r="S272" t="n">
+        <v>1</v>
+      </c>
+      <c r="T272" t="n">
         <v>5</v>
       </c>
-      <c r="T272" t="n">
+      <c r="U272" t="n">
         <v>8</v>
       </c>
     </row>
@@ -17183,16 +18543,21 @@
       <c r="P273" t="n">
         <v>8</v>
       </c>
-      <c r="Q273" t="n">
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R273" t="n">
         <v>69</v>
       </c>
-      <c r="R273" t="n">
-        <v>2</v>
-      </c>
       <c r="S273" t="n">
+        <v>2</v>
+      </c>
+      <c r="T273" t="n">
         <v>5</v>
       </c>
-      <c r="T273" t="n">
+      <c r="U273" t="n">
         <v>8</v>
       </c>
     </row>
@@ -17241,16 +18606,21 @@
       <c r="P274" t="n">
         <v>8</v>
       </c>
-      <c r="Q274" t="n">
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R274" t="n">
         <v>69</v>
       </c>
-      <c r="R274" t="n">
-        <v>1</v>
-      </c>
       <c r="S274" t="n">
+        <v>1</v>
+      </c>
+      <c r="T274" t="n">
         <v>5</v>
       </c>
-      <c r="T274" t="n">
+      <c r="U274" t="n">
         <v>8</v>
       </c>
     </row>
@@ -17309,16 +18679,21 @@
       <c r="P275" t="n">
         <v>8</v>
       </c>
-      <c r="Q275" t="n">
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R275" t="n">
         <v>68</v>
       </c>
-      <c r="R275" t="n">
+      <c r="S275" t="n">
         <v>4</v>
       </c>
-      <c r="S275" t="n">
+      <c r="T275" t="n">
         <v>5</v>
       </c>
-      <c r="T275" t="n">
+      <c r="U275" t="n">
         <v>8</v>
       </c>
     </row>
@@ -17367,16 +18742,21 @@
       <c r="P276" t="n">
         <v>8</v>
       </c>
-      <c r="Q276" t="n">
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R276" t="n">
         <v>68</v>
       </c>
-      <c r="R276" t="n">
+      <c r="S276" t="n">
         <v>3</v>
       </c>
-      <c r="S276" t="n">
+      <c r="T276" t="n">
         <v>5</v>
       </c>
-      <c r="T276" t="n">
+      <c r="U276" t="n">
         <v>8</v>
       </c>
     </row>
@@ -17425,16 +18805,21 @@
       <c r="P277" t="n">
         <v>8</v>
       </c>
-      <c r="Q277" t="n">
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R277" t="n">
         <v>68</v>
       </c>
-      <c r="R277" t="n">
-        <v>2</v>
-      </c>
       <c r="S277" t="n">
+        <v>2</v>
+      </c>
+      <c r="T277" t="n">
         <v>5</v>
       </c>
-      <c r="T277" t="n">
+      <c r="U277" t="n">
         <v>8</v>
       </c>
     </row>
@@ -17483,16 +18868,21 @@
       <c r="P278" t="n">
         <v>8</v>
       </c>
-      <c r="Q278" t="n">
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R278" t="n">
         <v>68</v>
       </c>
-      <c r="R278" t="n">
-        <v>1</v>
-      </c>
       <c r="S278" t="n">
+        <v>1</v>
+      </c>
+      <c r="T278" t="n">
         <v>5</v>
       </c>
-      <c r="T278" t="n">
+      <c r="U278" t="n">
         <v>8</v>
       </c>
     </row>
@@ -17551,16 +18941,21 @@
       <c r="P279" t="n">
         <v>7</v>
       </c>
-      <c r="Q279" t="n">
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R279" t="n">
         <v>60</v>
-      </c>
-      <c r="R279" t="n">
-        <v>5</v>
       </c>
       <c r="S279" t="n">
         <v>5</v>
       </c>
       <c r="T279" t="n">
+        <v>5</v>
+      </c>
+      <c r="U279" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17609,16 +19004,21 @@
       <c r="P280" t="n">
         <v>7</v>
       </c>
-      <c r="Q280" t="n">
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R280" t="n">
         <v>60</v>
       </c>
-      <c r="R280" t="n">
+      <c r="S280" t="n">
         <v>4</v>
       </c>
-      <c r="S280" t="n">
+      <c r="T280" t="n">
         <v>5</v>
       </c>
-      <c r="T280" t="n">
+      <c r="U280" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17667,16 +19067,21 @@
       <c r="P281" t="n">
         <v>7</v>
       </c>
-      <c r="Q281" t="n">
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R281" t="n">
         <v>60</v>
       </c>
-      <c r="R281" t="n">
+      <c r="S281" t="n">
         <v>3</v>
       </c>
-      <c r="S281" t="n">
+      <c r="T281" t="n">
         <v>5</v>
       </c>
-      <c r="T281" t="n">
+      <c r="U281" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17725,16 +19130,21 @@
       <c r="P282" t="n">
         <v>7</v>
       </c>
-      <c r="Q282" t="n">
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R282" t="n">
         <v>60</v>
       </c>
-      <c r="R282" t="n">
-        <v>2</v>
-      </c>
       <c r="S282" t="n">
+        <v>2</v>
+      </c>
+      <c r="T282" t="n">
         <v>5</v>
       </c>
-      <c r="T282" t="n">
+      <c r="U282" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17783,16 +19193,21 @@
       <c r="P283" t="n">
         <v>7</v>
       </c>
-      <c r="Q283" t="n">
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R283" t="n">
         <v>60</v>
       </c>
-      <c r="R283" t="n">
-        <v>1</v>
-      </c>
       <c r="S283" t="n">
+        <v>1</v>
+      </c>
+      <c r="T283" t="n">
         <v>5</v>
       </c>
-      <c r="T283" t="n">
+      <c r="U283" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17851,16 +19266,21 @@
       <c r="P284" t="n">
         <v>7</v>
       </c>
-      <c r="Q284" t="n">
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R284" t="n">
         <v>59</v>
       </c>
-      <c r="R284" t="n">
+      <c r="S284" t="n">
         <v>7</v>
       </c>
-      <c r="S284" t="n">
+      <c r="T284" t="n">
         <v>5</v>
       </c>
-      <c r="T284" t="n">
+      <c r="U284" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17909,16 +19329,21 @@
       <c r="P285" t="n">
         <v>7</v>
       </c>
-      <c r="Q285" t="n">
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R285" t="n">
         <v>59</v>
       </c>
-      <c r="R285" t="n">
+      <c r="S285" t="n">
         <v>6</v>
       </c>
-      <c r="S285" t="n">
+      <c r="T285" t="n">
         <v>5</v>
       </c>
-      <c r="T285" t="n">
+      <c r="U285" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17967,16 +19392,21 @@
       <c r="P286" t="n">
         <v>7</v>
       </c>
-      <c r="Q286" t="n">
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R286" t="n">
         <v>59</v>
-      </c>
-      <c r="R286" t="n">
-        <v>5</v>
       </c>
       <c r="S286" t="n">
         <v>5</v>
       </c>
       <c r="T286" t="n">
+        <v>5</v>
+      </c>
+      <c r="U286" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18025,16 +19455,21 @@
       <c r="P287" t="n">
         <v>7</v>
       </c>
-      <c r="Q287" t="n">
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R287" t="n">
         <v>59</v>
       </c>
-      <c r="R287" t="n">
+      <c r="S287" t="n">
         <v>4</v>
       </c>
-      <c r="S287" t="n">
+      <c r="T287" t="n">
         <v>5</v>
       </c>
-      <c r="T287" t="n">
+      <c r="U287" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18083,16 +19518,21 @@
       <c r="P288" t="n">
         <v>7</v>
       </c>
-      <c r="Q288" t="n">
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R288" t="n">
         <v>59</v>
       </c>
-      <c r="R288" t="n">
+      <c r="S288" t="n">
         <v>3</v>
       </c>
-      <c r="S288" t="n">
+      <c r="T288" t="n">
         <v>5</v>
       </c>
-      <c r="T288" t="n">
+      <c r="U288" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18141,16 +19581,21 @@
       <c r="P289" t="n">
         <v>7</v>
       </c>
-      <c r="Q289" t="n">
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R289" t="n">
         <v>59</v>
       </c>
-      <c r="R289" t="n">
-        <v>2</v>
-      </c>
       <c r="S289" t="n">
+        <v>2</v>
+      </c>
+      <c r="T289" t="n">
         <v>5</v>
       </c>
-      <c r="T289" t="n">
+      <c r="U289" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18199,16 +19644,21 @@
       <c r="P290" t="n">
         <v>7</v>
       </c>
-      <c r="Q290" t="n">
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R290" t="n">
         <v>59</v>
       </c>
-      <c r="R290" t="n">
-        <v>1</v>
-      </c>
       <c r="S290" t="n">
+        <v>1</v>
+      </c>
+      <c r="T290" t="n">
         <v>5</v>
       </c>
-      <c r="T290" t="n">
+      <c r="U290" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18263,16 +19713,21 @@
       <c r="P291" t="n">
         <v>7</v>
       </c>
-      <c r="Q291" t="n">
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R291" t="n">
         <v>58</v>
       </c>
-      <c r="R291" t="n">
+      <c r="S291" t="n">
         <v>4</v>
       </c>
-      <c r="S291" t="n">
+      <c r="T291" t="n">
         <v>5</v>
       </c>
-      <c r="T291" t="n">
+      <c r="U291" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18321,16 +19776,21 @@
       <c r="P292" t="n">
         <v>7</v>
       </c>
-      <c r="Q292" t="n">
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R292" t="n">
         <v>58</v>
       </c>
-      <c r="R292" t="n">
+      <c r="S292" t="n">
         <v>3</v>
       </c>
-      <c r="S292" t="n">
+      <c r="T292" t="n">
         <v>5</v>
       </c>
-      <c r="T292" t="n">
+      <c r="U292" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18379,16 +19839,21 @@
       <c r="P293" t="n">
         <v>7</v>
       </c>
-      <c r="Q293" t="n">
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R293" t="n">
         <v>58</v>
       </c>
-      <c r="R293" t="n">
-        <v>2</v>
-      </c>
       <c r="S293" t="n">
+        <v>2</v>
+      </c>
+      <c r="T293" t="n">
         <v>5</v>
       </c>
-      <c r="T293" t="n">
+      <c r="U293" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18437,16 +19902,21 @@
       <c r="P294" t="n">
         <v>7</v>
       </c>
-      <c r="Q294" t="n">
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R294" t="n">
         <v>58</v>
       </c>
-      <c r="R294" t="n">
-        <v>1</v>
-      </c>
       <c r="S294" t="n">
+        <v>1</v>
+      </c>
+      <c r="T294" t="n">
         <v>5</v>
       </c>
-      <c r="T294" t="n">
+      <c r="U294" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18499,16 +19969,21 @@
       <c r="P295" t="n">
         <v>5</v>
       </c>
-      <c r="Q295" t="n">
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R295" t="n">
         <v>43</v>
       </c>
-      <c r="R295" t="n">
-        <v>1</v>
-      </c>
       <c r="S295" t="n">
+        <v>1</v>
+      </c>
+      <c r="T295" t="n">
         <v>6</v>
       </c>
-      <c r="T295" t="n">
+      <c r="U295" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18563,16 +20038,21 @@
       <c r="P296" t="n">
         <v>5</v>
       </c>
-      <c r="Q296" t="n">
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R296" t="n">
         <v>42</v>
       </c>
-      <c r="R296" t="n">
+      <c r="S296" t="n">
         <v>4</v>
       </c>
-      <c r="S296" t="n">
+      <c r="T296" t="n">
         <v>6</v>
       </c>
-      <c r="T296" t="n">
+      <c r="U296" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18621,16 +20101,21 @@
       <c r="P297" t="n">
         <v>5</v>
       </c>
-      <c r="Q297" t="n">
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R297" t="n">
         <v>42</v>
       </c>
-      <c r="R297" t="n">
+      <c r="S297" t="n">
         <v>3</v>
       </c>
-      <c r="S297" t="n">
+      <c r="T297" t="n">
         <v>6</v>
       </c>
-      <c r="T297" t="n">
+      <c r="U297" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18679,16 +20164,21 @@
       <c r="P298" t="n">
         <v>5</v>
       </c>
-      <c r="Q298" t="n">
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R298" t="n">
         <v>42</v>
       </c>
-      <c r="R298" t="n">
-        <v>2</v>
-      </c>
       <c r="S298" t="n">
+        <v>2</v>
+      </c>
+      <c r="T298" t="n">
         <v>6</v>
       </c>
-      <c r="T298" t="n">
+      <c r="U298" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18737,16 +20227,21 @@
       <c r="P299" t="n">
         <v>5</v>
       </c>
-      <c r="Q299" t="n">
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R299" t="n">
         <v>42</v>
       </c>
-      <c r="R299" t="n">
-        <v>1</v>
-      </c>
       <c r="S299" t="n">
+        <v>1</v>
+      </c>
+      <c r="T299" t="n">
         <v>6</v>
       </c>
-      <c r="T299" t="n">
+      <c r="U299" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18805,16 +20300,21 @@
       <c r="P300" t="n">
         <v>5</v>
       </c>
-      <c r="Q300" t="n">
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R300" t="n">
         <v>41</v>
       </c>
-      <c r="R300" t="n">
-        <v>1</v>
-      </c>
       <c r="S300" t="n">
+        <v>1</v>
+      </c>
+      <c r="T300" t="n">
         <v>6</v>
       </c>
-      <c r="T300" t="n">
+      <c r="U300" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18871,16 +20371,21 @@
       <c r="P301" t="n">
         <v>5</v>
       </c>
-      <c r="Q301" t="n">
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R301" t="n">
         <v>40</v>
       </c>
-      <c r="R301" t="n">
-        <v>1</v>
-      </c>
       <c r="S301" t="n">
+        <v>1</v>
+      </c>
+      <c r="T301" t="n">
         <v>6</v>
       </c>
-      <c r="T301" t="n">
+      <c r="U301" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18935,16 +20440,21 @@
       <c r="P302" t="n">
         <v>5</v>
       </c>
-      <c r="Q302" t="n">
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R302" t="n">
         <v>39</v>
       </c>
-      <c r="R302" t="n">
-        <v>1</v>
-      </c>
       <c r="S302" t="n">
+        <v>1</v>
+      </c>
+      <c r="T302" t="n">
         <v>6</v>
       </c>
-      <c r="T302" t="n">
+      <c r="U302" t="n">
         <v>3</v>
       </c>
     </row>
